--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Monday</t>
   </si>
@@ -65,10 +65,6 @@
   <si>
     <t>Team Session
 (in class)</t>
-  </si>
-  <si>
-    <t>SQL/JDBC/ORM Review and Lab Time
-(in-class)</t>
   </si>
   <si>
     <t>Lecture 4: UML Class Diagrams
@@ -84,15 +80,6 @@
 (Violet UML &amp; Google Doc)</t>
   </si>
   <si>
-    <t>Agile and Extreme Programming
-XP: Chapters 6-7, Qustions and Discussions)</t>
-  </si>
-  <si>
-    <t>Lecture 10: DB Applications, JDBC
-Lab 5: JDBC Lab
-(assigned)</t>
-  </si>
-  <si>
     <t>Lecture  11: ORM, Designing a Persistence Layer
 Lab 6: ORM
 (assigned)</t>
@@ -113,23 +100,6 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t>Lab 4: SQL, Queries, and Joins  due (Marmoset)</t>
-  </si>
-  <si>
-    <t>A08: Team Code and Report 
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>A10: Team Project Reflection
-(Marmoset)
-A11: Team Project Self/Peer Evaluations
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>A09: Ind Code and Report
-(Marmoset)</t>
-  </si>
-  <si>
     <t>SEMESTER
 BREAK</t>
   </si>
@@ -143,65 +113,20 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Lecture 2: Development Process, Manifesto for Agile Development
-UD-Chapter 2</t>
-  </si>
-  <si>
     <t>Lecture 8: Web Applications
 Lab 2: Web Applications assigned</t>
   </si>
   <si>
-    <t>Plant Tour @ Red Lion Controls
-OR
-Team Session
-(in class)</t>
-  </si>
-  <si>
     <t>Lecture 3: Requirements, Use Cases
 (UD, Chapter 9)</t>
   </si>
   <si>
-    <t>A02: Ind Project Proposal due
-(Google Doc)</t>
-  </si>
-  <si>
-    <t>Agile Development and Extreme Programming
-(XP: Chapters 1-5, Questions and Discussions)
-Development Process discussion</t>
-  </si>
-  <si>
-    <t>Lab 2: Web Applications
-(in class)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A01: Team Project Proposal due
-(Google Doc)
- Lab 2: Web Applications I Due (Marmoset)
-</t>
-  </si>
-  <si>
-    <t>Lab 2a: Web Applications II Due
-(Marmoset)
-A05: Use Cases due
-(Google Doc)</t>
-  </si>
-  <si>
     <t>Winter Break</t>
   </si>
   <si>
     <t>Lecture Git: Version Control</t>
   </si>
   <si>
-    <t>Scrum/Agile
-BD Guest Lecturer</t>
-  </si>
-  <si>
-    <t>Lecture 9: Relational Databses
-Lab 4: SQL, Queries, and Joins
-(assigned)</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -212,16 +137,6 @@
   </si>
   <si>
     <t>April</t>
-  </si>
-  <si>
-    <t>A08: Team Presentation and Demonstration
-(in class)
-** DURING FINAL EXAM PERIOD **</t>
-  </si>
-  <si>
-    <t>Team Session
-(in class)
-Lab 5: JDBC due (Marmoset)</t>
   </si>
   <si>
     <t>Mid-Term
@@ -238,15 +153,6 @@
 (w/SQL DB)</t>
   </si>
   <si>
-    <t>A03: Team MS4
-95% Working System</t>
-  </si>
-  <si>
-    <t>** LAST CLASS **
-A04: Ind MS4
-Final Project Demo</t>
-  </si>
-  <si>
     <t>A04: Ind MS2
 33% Working Progresss</t>
   </si>
@@ -263,24 +169,104 @@
 67% Working Progress</t>
   </si>
   <si>
-    <t>Team Session
-(in class)
-Lab 6: ORM Due (Marmoset)</t>
-  </si>
-  <si>
     <t>Library Example and Exam Review
 (in-class)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-29-2017, subject to change)</t>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 12-10-2018, subject to change)</t>
+  </si>
+  <si>
+    <t>Lecture 2: Development Processes
+UD-Chapter 2</t>
+  </si>
+  <si>
+    <t>Agile Development and Scrum</t>
+  </si>
+  <si>
+    <t>A01: Team Project Proposal due
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>A05: Use Cases due
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>A04: Ind MS4
+Final Project Demo</t>
+  </si>
+  <si>
+    <t>**LAST CLASS**
+A03: Team MS4
+95% Working System</t>
+  </si>
+  <si>
+    <t>A10: Team Project Reflection due
+(Marmoset)
+A11: Team Project Self/Peer Evaluations due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>A08: Team Code and Report due 
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>A09: Ind Code and Report due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lecture 10: DB Applications, JDBC
+Lab 5: JDBC
+(assigned)</t>
+  </si>
+  <si>
+    <t>Lecture 9: Relational Databases
+Lab 4: SQL
+(assigned)</t>
+  </si>
+  <si>
+    <t>Lab 5: JDBC due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lab 4: SQL due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lab 6: ORM due (Marmoset)</t>
+  </si>
+  <si>
+    <t>SQL/JDBC/ORM Review &amp; Labs
+(in-class)</t>
+  </si>
+  <si>
+    <t>A02: Individual Project Proposal due
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>Lab 2A: Web Apps due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** FINAL EXAM PERIOD **
+A08: Team Presentation and Demonstration
+(in class)
+</t>
+  </si>
+  <si>
+    <t>Agile &amp; Scrum
+BD Guest Lecturer</t>
+  </si>
+  <si>
+    <t>Web Applications Exercise &amp; Lab 2
+(in class)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +335,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -640,19 +639,6 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -762,6 +748,84 @@
         <color auto="1"/>
       </right>
       <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thick">
@@ -773,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,18 +884,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,7 +941,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,36 +950,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,12 +989,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -973,37 +1004,64 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,38 +1073,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,25 +1485,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83"/>
+      <c r="A1" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1409,1161 +1521,1194 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="88">
+      <c r="A3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="68">
         <v>1</v>
       </c>
       <c r="C3" s="5">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3 + 1</f>
         <v>15</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:I3" si="0">C3 + 1</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:I3" si="0">D3 + 1</f>
         <v>16</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I3" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="72"/>
+    </row>
+    <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="72">
+      <c r="A5" s="66"/>
+      <c r="B5" s="64">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
       <c r="C5" s="14">
         <f>I3 + 1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11">
         <f>C5 + 1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" ref="E5:I15" si="1">D5 + 1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="102" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="72">
+      <c r="A7" s="66"/>
+      <c r="B7" s="64">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
       <c r="C7" s="14">
         <f>I5 + 1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11">
         <f>C7 + 1</f>
+        <v>29</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
+      <c r="F7" s="90">
+        <f>E7+1</f>
         <v>31</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="17">
-        <f>F7 + 1</f>
+      <c r="H7" s="16">
+        <f>G7 + 1</f>
         <v>2</v>
       </c>
-      <c r="H7" s="17">
-        <f>G7 + 1</f>
+      <c r="I7" s="17">
+        <f>H7 + 1</f>
         <v>3</v>
       </c>
-      <c r="I7" s="18">
-        <f>H7 + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="74">
+      <c r="A9" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="75">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <f>I7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="25">
+        <f>C9 + 1</f>
         <v>5</v>
       </c>
-      <c r="D9" s="27">
-        <f>C9 + 1</f>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E9" s="27">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="24">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G9" s="24">
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H9" s="24">
+      <c r="I9" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="28">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="25"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="75">
+      <c r="A11" s="72"/>
+      <c r="B11" s="70">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="28">
         <f>I9 + 1</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="22">
+        <f>C11 + 1</f>
         <v>12</v>
       </c>
-      <c r="D11" s="24">
-        <f>C11 + 1</f>
+      <c r="E11" s="22">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F11" s="24">
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="24">
+      <c r="H11" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H11" s="24">
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I11" s="28">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="24" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="75">
+      <c r="A13" s="72"/>
+      <c r="B13" s="70">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="28">
         <f>I11 + 1</f>
+        <v>18</v>
+      </c>
+      <c r="D13" s="22">
+        <f>C13 + 1</f>
         <v>19</v>
       </c>
-      <c r="D13" s="24">
-        <f>C13 + 1</f>
+      <c r="E13" s="22">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E13" s="24">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F13" s="24">
+      <c r="G13" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G13" s="24">
+      <c r="H13" s="22">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H13" s="24">
+      <c r="I13" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I13" s="31">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
+    </row>
+    <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="75">
+      <c r="A15" s="72"/>
+      <c r="B15" s="70">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
       <c r="C15" s="9">
         <f>I13 + 1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="10">
         <f>C15 + 1</f>
+        <v>26</v>
+      </c>
+      <c r="E15" s="85">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E15" s="31">
-        <f t="shared" si="1"/>
+      <c r="F15" s="29">
+        <f>E15 + 1</f>
         <v>28</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <f>F15 + 1</f>
-        <v>2</v>
       </c>
       <c r="H15" s="6">
         <f>G15 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="31">
+        <f>H15 + 1</f>
         <v>3</v>
       </c>
-      <c r="I15" s="33">
-        <f>H15 + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="34" t="str">
+    </row>
+    <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="100" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
         <v>Winter Break</v>
       </c>
-      <c r="E16" s="35" t="str">
+      <c r="E16" s="86" t="str">
         <f t="shared" si="2"/>
         <v>Winter Break</v>
       </c>
-      <c r="F16" s="34" t="str">
+      <c r="F16" s="33" t="str">
         <f>E16</f>
         <v>Winter Break</v>
       </c>
-      <c r="G16" s="59" t="str">
+      <c r="G16" s="32" t="str">
         <f>F16</f>
         <v>Winter Break</v>
       </c>
-      <c r="H16" s="59" t="str">
+      <c r="H16" s="50" t="str">
         <f>G16</f>
         <v>Winter Break</v>
       </c>
-      <c r="I16" s="35" t="str">
+      <c r="I16" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Winter Break</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="1:11" s="57" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="1:11" s="54" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="str">
+    <row r="17" spans="1:9" s="48" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" spans="1:9" s="45" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="str">
         <f>A1</f>
-        <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-29-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>CS320: SW Engineering - Spring 2018 Schedule
+(as of 12-10-2018, subject to change)</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="84">
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="60">
         <f>B15</f>
         <v>7</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C30" s="9">
         <f>C15</f>
+        <v>25</v>
+      </c>
+      <c r="D30" s="10">
+        <f>C30 + 1</f>
         <v>26</v>
       </c>
-      <c r="D28" s="10">
-        <f>C28 + 1</f>
+      <c r="E30" s="85">
+        <f t="shared" ref="E30" si="3">D30 + 1</f>
         <v>27</v>
       </c>
-      <c r="E28" s="31">
-        <f t="shared" ref="E28" si="3">D28 + 1</f>
+      <c r="F30" s="31">
+        <f>F15</f>
         <v>28</v>
       </c>
-      <c r="F28" s="32">
-        <f>F15</f>
+      <c r="G30" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="6">
-        <f>F28 + 1</f>
+      <c r="H30" s="6">
+        <f>G30 + 1</f>
         <v>2</v>
       </c>
-      <c r="H28" s="6">
-        <f>G28 + 1</f>
+      <c r="I30" s="31">
+        <f>H30 + 1</f>
         <v>3</v>
       </c>
-      <c r="I28" s="33">
-        <f>H28 + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="34" t="str">
+    </row>
+    <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="88" t="str">
         <f>C16</f>
         <v>Winter Break</v>
       </c>
-      <c r="D29" s="34" t="str">
-        <f t="shared" ref="D29" si="4">C29</f>
+      <c r="D31" s="50" t="str">
+        <f t="shared" ref="D31" si="4">C31</f>
         <v>Winter Break</v>
       </c>
-      <c r="E29" s="35" t="str">
-        <f t="shared" ref="E29" si="5">D29</f>
+      <c r="E31" s="86" t="str">
+        <f t="shared" ref="E31" si="5">D31</f>
         <v>Winter Break</v>
       </c>
-      <c r="F29" s="9" t="str">
-        <f>E29</f>
+      <c r="F31" s="33" t="str">
+        <f>E31</f>
         <v>Winter Break</v>
       </c>
-      <c r="G29" s="10" t="str">
-        <f>F29</f>
+      <c r="G31" s="87" t="str">
+        <f>F31</f>
         <v>Winter Break</v>
       </c>
-      <c r="H29" s="10" t="str">
-        <f>G29</f>
+      <c r="H31" s="10" t="str">
+        <f>G31</f>
         <v>Winter Break</v>
       </c>
-      <c r="I29" s="31" t="str">
-        <f t="shared" ref="I29" si="6">H29</f>
+      <c r="I31" s="29" t="str">
+        <f t="shared" ref="I31" si="6">H31</f>
         <v>Winter Break</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="77">
-        <f>B28 + 1</f>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="74">
+        <f>B30 + 1</f>
         <v>8</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C32" s="9">
         <f>I15 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="11">
+        <f>C32 + 1</f>
         <v>5</v>
       </c>
-      <c r="D30" s="11">
-        <f>C30 + 1</f>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32:I32" si="7">D32 + 1</f>
         <v>6</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E30:I30" si="7">D30 + 1</f>
+      <c r="F32" s="34">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F30" s="36">
+      <c r="G32" s="34">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G30" s="36">
+      <c r="H32" s="34">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="H30" s="36">
+      <c r="I32" s="35">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I30" s="37">
-        <f t="shared" si="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="9" t="str">
+        <f>I31</f>
+        <v>Winter Break</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="53"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+      <c r="B34" s="64">
+        <f>B32 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="C34" s="37">
+        <f>I32 + 1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="9" t="str">
-        <f>I29</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="K31" s="64"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="72">
-        <f>B30 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="C32" s="39">
-        <f>I30 + 1</f>
+      <c r="D34" s="11">
+        <f>C34 + 1</f>
         <v>12</v>
       </c>
-      <c r="D32" s="11">
-        <f>C32 + 1</f>
+      <c r="E34" s="11">
+        <f t="shared" ref="E34:I34" si="8">D34 + 1</f>
         <v>13</v>
       </c>
-      <c r="E32" s="11">
-        <f t="shared" ref="E32:I32" si="8">D32 + 1</f>
+      <c r="F34" s="11">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G34" s="11">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H34" s="11">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="H32" s="11">
+      <c r="I34" s="15">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="I32" s="15">
-        <f t="shared" si="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="51"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="64">
+        <f>B34 + 1</f>
+        <v>10</v>
+      </c>
+      <c r="C36" s="14">
+        <f>I34 + 1</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="D36" s="34">
+        <f>C36 + 1</f>
+        <v>19</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" ref="E36:I38" si="9">D36 + 1</f>
         <v>20</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="K33" s="62"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="72">
-        <f>B32 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="C34" s="14">
-        <f>I32 + 1</f>
-        <v>19</v>
-      </c>
-      <c r="D34" s="11">
-        <f>C34 + 1</f>
-        <v>20</v>
-      </c>
-      <c r="E34" s="11">
-        <f t="shared" ref="E34:I36" si="9">D34 + 1</f>
+      <c r="F36" s="34">
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G36" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H36" s="11">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I36" s="15">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="I34" s="15">
+    </row>
+    <row r="37" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="64">
+        <f>B36 + 1</f>
+        <v>11</v>
+      </c>
+      <c r="C38" s="14">
+        <f>I36 + 1</f>
+        <v>25</v>
+      </c>
+      <c r="D38" s="11">
+        <f>C38 + 1</f>
+        <v>26</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="72">
-        <f>B34 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="C36" s="14">
-        <f>I34 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="D36" s="11">
-        <f>C36 + 1</f>
         <v>27</v>
       </c>
-      <c r="E36" s="11">
+      <c r="F38" s="34">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G38" s="10">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H38" s="85">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H36" s="15">
-        <f t="shared" si="9"/>
+      <c r="I38" s="29">
+        <f>H38 + 1</f>
         <v>31</v>
       </c>
-      <c r="I36" s="41">
+    </row>
+    <row r="39" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="75">
+        <f>B38 + 1</f>
+        <v>12</v>
+      </c>
+      <c r="C40" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="74">
-        <f>B36 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="C38" s="30">
-        <f>I36 + 1</f>
+      <c r="D40" s="92">
+        <f>C40 + 1</f>
         <v>2</v>
       </c>
-      <c r="D38" s="27">
-        <f>C38 + 1</f>
+      <c r="E40" s="22">
+        <f t="shared" ref="E40:I40" si="10">D40 + 1</f>
         <v>3</v>
       </c>
-      <c r="E38" s="24">
-        <f t="shared" ref="E38:I38" si="10">D38 + 1</f>
+      <c r="F40" s="25">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G40" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G38" s="24">
+      <c r="H40" s="25">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="H38" s="27">
+      <c r="I40" s="84">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="I38" s="28">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="41" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="77"/>
+      <c r="B42" s="70">
+        <f>B40 + 1</f>
+        <v>13</v>
+      </c>
+      <c r="C42" s="28">
+        <f>I40 + 1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="75">
-        <f>B38 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="C40" s="30">
-        <f>I38 + 1</f>
+      <c r="D42" s="25">
+        <f>C42 + 1</f>
         <v>9</v>
       </c>
-      <c r="D40" s="27">
-        <f>C40 + 1</f>
+      <c r="E42" s="22">
+        <f t="shared" ref="E42:I42" si="11">D42 + 1</f>
         <v>10</v>
       </c>
-      <c r="E40" s="24">
-        <f t="shared" ref="E40:I40" si="11">D40 + 1</f>
+      <c r="F42" s="22">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="F40" s="24">
+      <c r="G42" s="93">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H42" s="93">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="H40" s="10">
+      <c r="I42" s="94">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="I40" s="31">
-        <f t="shared" si="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="77"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="93"/>
+      <c r="H43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="94"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
+      <c r="B44" s="70">
+        <f>B42 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="C44" s="99">
+        <f>I42 + 1</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="10" t="str">
-        <f>G41</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="I41" s="31" t="str">
-        <f>H41</f>
-        <v>SPRING BREAK</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="75">
-        <f>B40 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="C42" s="9">
-        <f>I40 + 1</f>
+      <c r="D44" s="93">
+        <f>C44 + 1</f>
         <v>16</v>
       </c>
-      <c r="D42" s="10">
-        <f>C42 + 1</f>
+      <c r="E44" s="22">
+        <f t="shared" ref="E44:I46" si="12">D44 + 1</f>
         <v>17</v>
       </c>
-      <c r="E42" s="24">
-        <f t="shared" ref="E42:I44" si="12">D42 + 1</f>
+      <c r="F44" s="22">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="F42" s="24">
+      <c r="G44" s="22">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G42" s="24">
+      <c r="H44" s="22">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H42" s="24">
+      <c r="I44" s="26">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="I42" s="28">
+    </row>
+    <row r="45" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="77"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
+      <c r="B46" s="70">
+        <f>B44 + 1</f>
+        <v>15</v>
+      </c>
+      <c r="C46" s="28">
+        <f>I44 + 1</f>
+        <v>22</v>
+      </c>
+      <c r="D46" s="22">
+        <f>C46 + 1</f>
+        <v>23</v>
+      </c>
+      <c r="E46" s="22">
         <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="9" t="str">
-        <f>I41</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="D43" s="10" t="str">
-        <f>C43</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="75">
-        <f>B42 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="C44" s="30">
-        <f>I42 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="D44" s="24">
-        <f>C44 + 1</f>
         <v>24</v>
       </c>
-      <c r="E44" s="24">
+      <c r="F46" s="22">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="F44" s="24">
+      <c r="G46" s="22">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="G44" s="24">
+      <c r="H46" s="22">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="H44" s="24">
+      <c r="I46" s="26">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="I44" s="28">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="77"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="F47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77"/>
+      <c r="B48" s="70">
+        <f>B46 + 1</f>
+        <v>16</v>
+      </c>
+      <c r="C48" s="28">
+        <f>I46 + 1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="46" t="s">
+      <c r="D48" s="83">
+        <f>C48 + 1</f>
+        <v>30</v>
+      </c>
+      <c r="E48" s="80">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <f>E48 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="G48" s="7">
+        <f>F48 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="H48" s="7">
+        <f>G48 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I48" s="8">
+        <f>H48 + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="75">
-        <f>B44 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="C46" s="47">
-        <f>I44 + 1</f>
-        <v>30</v>
-      </c>
-      <c r="D46" s="48">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <f>D46 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="F46" s="7">
-        <f>E46 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="G46" s="7">
-        <f>F46 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="H46" s="7">
-        <f>G46 + 1</f>
+      <c r="E49" s="81"/>
+      <c r="F49" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="101"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="8">
-        <f>H46 + 1</f>
+      <c r="B50" s="68">
+        <f>B48 + 1</f>
+        <v>17</v>
+      </c>
+      <c r="C50" s="14">
+        <f>I48 + 1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="80"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="77">
-        <f>B46 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="C48" s="14">
-        <f>I46 + 1</f>
+      <c r="D50" s="34">
+        <f>C50 + 1</f>
         <v>7</v>
       </c>
-      <c r="D48" s="11">
-        <f>C48 + 1</f>
+      <c r="E50" s="11">
+        <f t="shared" ref="E50:I50" si="13">D50 + 1</f>
         <v>8</v>
       </c>
-      <c r="E48" s="11">
-        <f t="shared" ref="E48:I48" si="13">D48 + 1</f>
+      <c r="F50" s="34">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="F48" s="11">
+      <c r="G50" s="11">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="G48" s="11">
+      <c r="H50" s="11">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I50" s="15">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I48" s="15">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="51" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A40:A49"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A32:A39"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -2571,19 +2716,9 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-165" windowWidth="12015" windowHeight="12075"/>
+    <workbookView xWindow="90" yWindow="-165" windowWidth="15825" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Monday</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Lecture 1: Course Overview, OOP</t>
   </si>
   <si>
     <t>Team session: Analysis model presentation and discussion</t>
@@ -57,21 +54,10 @@
     <t>SPRING BREAK</t>
   </si>
   <si>
-    <t>Lecture 12: Testing</t>
-  </si>
-  <si>
-    <t>Lecture 13: Code Quality</t>
-  </si>
-  <si>
     <t>Team Session
 (in class)</t>
   </si>
   <si>
-    <t>Lecture 4: UML Class Diagrams
-(UD, Chapter 3)
-Lecture 5: OO Analysis</t>
-  </si>
-  <si>
     <t>Team Analysis Model
 (in-class session)</t>
   </si>
@@ -80,22 +66,6 @@
 (Violet UML &amp; Google Doc)</t>
   </si>
   <si>
-    <t>Lecture  11: ORM, Designing a Persistence Layer
-Lab 6: ORM
-(assigned)</t>
-  </si>
-  <si>
-    <t>Lecture 6: OO Design, OCP, LSP
-Design Principles and Design Patterns</t>
-  </si>
-  <si>
-    <t>Lecture 7: HTML &amp; CSS
-Lab 1: HTML and CSS assigned</t>
-  </si>
-  <si>
-    <t>Lab 3: Git and Egit (in class)</t>
-  </si>
-  <si>
     <t>Lab 1: HTML &amp; CSS  due
 (Marmoset)</t>
   </si>
@@ -111,20 +81,6 @@
   </si>
   <si>
     <t>Week</t>
-  </si>
-  <si>
-    <t>Lecture 8: Web Applications
-Lab 2: Web Applications assigned</t>
-  </si>
-  <si>
-    <t>Lecture 3: Requirements, Use Cases
-(UD, Chapter 9)</t>
-  </si>
-  <si>
-    <t>Winter Break</t>
-  </si>
-  <si>
-    <t>Lecture Git: Version Control</t>
   </si>
   <si>
     <t>January</t>
@@ -173,17 +129,6 @@
 (in-class)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 12-10-2018, subject to change)</t>
-  </si>
-  <si>
-    <t>Lecture 2: Development Processes
-UD-Chapter 2</t>
-  </si>
-  <si>
-    <t>Agile Development and Scrum</t>
-  </si>
-  <si>
     <t>A01: Team Project Proposal due
 (Google Doc)</t>
   </si>
@@ -201,12 +146,6 @@
 95% Working System</t>
   </si>
   <si>
-    <t>A10: Team Project Reflection due
-(Marmoset)
-A11: Team Project Self/Peer Evaluations due
-(Marmoset)</t>
-  </si>
-  <si>
     <t>A08: Team Code and Report due 
 (Marmoset)</t>
   </si>
@@ -215,16 +154,6 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t>Lecture 10: DB Applications, JDBC
-Lab 5: JDBC
-(assigned)</t>
-  </si>
-  <si>
-    <t>Lecture 9: Relational Databases
-Lab 4: SQL
-(assigned)</t>
-  </si>
-  <si>
     <t>Lab 5: JDBC due
 (Marmoset)</t>
   </si>
@@ -242,10 +171,6 @@
   <si>
     <t>A02: Individual Project Proposal due
 (Google Doc)</t>
-  </si>
-  <si>
-    <t>Lab 2A: Web Apps due
-(Marmoset)</t>
   </si>
   <si>
     <t xml:space="preserve">** FINAL EXAM PERIOD **
@@ -260,6 +185,179 @@
   <si>
     <t>Web Applications Exercise &amp; Lab 2
 (in class)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 12-23-2018, subject to change)</t>
+  </si>
+  <si>
+    <t>Lecture 6: Development Processes
+UD-Chapter 2</t>
+  </si>
+  <si>
+    <t>Lecture 7:
+Agile Development and Scrum</t>
+  </si>
+  <si>
+    <t>Lecture 8: Requirements, Use Cases
+(UD, Chapter 9)</t>
+  </si>
+  <si>
+    <t>Lecture 9:
+UML  Diagrams
+(UD, Chapter 3)
+Lecture 10:
+OO Analysis</t>
+  </si>
+  <si>
+    <t>Lecture 11: OO Design, OCP, LSP
+Design Principles and Design Patterns</t>
+  </si>
+  <si>
+    <t>Lecture 12: Version Control
+(Git)</t>
+  </si>
+  <si>
+    <t>Lab 3:
+Git and Egit
+(in class)</t>
+  </si>
+  <si>
+    <t>Lecture 16: Testing</t>
+  </si>
+  <si>
+    <t>Lecture 17: Code Quality</t>
+  </si>
+  <si>
+    <t>A11: Team Project Midterm
+Peer Evals due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>A10: Team Project Reflection due
+(Marmoset)
+A11: Team Project
+Final Self/Peer Evaluations due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lab 2: Web Apps due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lecture 1:
+Course Overview, OOP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 2:
+HTML &amp; CSS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 1: HTML and CSS assigned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 4: Web Applications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 2: Web Applications assigned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 13: Relational Databases
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 4: SQL
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 14: DB Applications, JDBC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 5: JDBC
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture  15: ORM, Designing a Persistence Layer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 6: ORM
+(assigned)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab Due</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>WINTER BREAK</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Individual Project Milestone Due</t>
+  </si>
+  <si>
+    <t>Team Project
+Milestone Due</t>
   </si>
 </sst>
 </file>
@@ -387,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -693,19 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -837,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -851,24 +936,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,25 +996,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,9 +1044,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,48 +1062,90 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1058,106 +1155,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1464,16 +1561,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="5" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
@@ -1485,25 +1582,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="A1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1521,351 +1618,345 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="68">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104">
+        <v>16</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="83">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="84">
         <f>C3 + 1</f>
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="84">
         <f t="shared" ref="E3:I3" si="0">D3 + 1</f>
         <v>16</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="64">
-        <f>B3 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="A4" s="105"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
+        <v>15</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <f>C5 + 1</f>
         <v>22</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:I15" si="1">D5 + 1</f>
         <v>23</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="64">
-        <f>B5 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
+        <v>14</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <f>C7 + 1</f>
         <v>29</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="53">
         <f>E7+1</f>
         <v>31</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="12">
         <f>G7 + 1</f>
         <v>2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <f>H7 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="75">
-        <f>B7 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="A8" s="106"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104">
+        <v>13</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20">
         <f>I7 + 1</f>
         <v>4</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <f>C9 + 1</f>
         <v>5</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="70">
-        <f>B9 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
+        <v>12</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <f>C11 + 1</f>
         <v>12</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="70">
-        <f>B11 + 1</f>
+      <c r="A12" s="105"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
+        <v>11</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <f>C13 + 1</f>
         <v>19</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="86">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="70">
-        <f>B13 + 1</f>
-        <v>7</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="A14" s="105"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
+        <v>10</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="81">
         <f>I13 + 1</f>
         <v>25</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="82">
         <f>C15 + 1</f>
         <v>26</v>
       </c>
@@ -1873,852 +1964,844 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="86">
         <f>E15 + 1</f>
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="83">
         <v>1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="84">
         <f>G15 + 1</f>
         <v>2</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="87">
         <f>H15 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="100" t="str">
+      <c r="A16" s="106"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="89" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="E16" s="86" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="E16" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>Winter Break</v>
-      </c>
-      <c r="F16" s="33" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="F16" s="91" t="str">
         <f>E16</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="G16" s="32" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="G16" s="88" t="str">
         <f>F16</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="H16" s="50" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="H16" s="92" t="str">
         <f>G16</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="I16" s="33" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="I16" s="91" t="str">
         <f t="shared" si="2"/>
-        <v>Winter Break</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="48" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-    </row>
-    <row r="25" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:9" s="45" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="str">
+        <v>WINTER BREAK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="98"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" s="37" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" s="39" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="98"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" s="39" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="98"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" s="39" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="98"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 12-10-2018, subject to change)</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
+(as of 12-23-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="60">
-        <f>B15</f>
-        <v>7</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="103">
+        <v>10</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="81">
         <f>C15</f>
         <v>25</v>
       </c>
-      <c r="D30" s="10">
-        <f>C30 + 1</f>
+      <c r="D29" s="82">
+        <f>C29 + 1</f>
         <v>26</v>
       </c>
-      <c r="E30" s="85">
-        <f t="shared" ref="E30" si="3">D30 + 1</f>
+      <c r="E29" s="85">
+        <f t="shared" ref="E29" si="3">D29 + 1</f>
         <v>27</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F29" s="87">
         <f>F15</f>
         <v>28</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G29" s="93">
         <v>1</v>
       </c>
-      <c r="H30" s="6">
-        <f>G30 + 1</f>
+      <c r="H29" s="84">
+        <f>G29 + 1</f>
         <v>2</v>
       </c>
-      <c r="I30" s="31">
-        <f>H30 + 1</f>
+      <c r="I29" s="87">
+        <f>H29 + 1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="88" t="str">
-        <f>C16</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="D31" s="50" t="str">
-        <f t="shared" ref="D31" si="4">C31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="E31" s="86" t="str">
-        <f t="shared" ref="E31" si="5">D31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="F31" s="33" t="str">
-        <f>E31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="G31" s="87" t="str">
-        <f>F31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="H31" s="10" t="str">
-        <f>G31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="I31" s="29" t="str">
-        <f t="shared" ref="I31" si="6">H31</f>
-        <v>Winter Break</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="74">
-        <f>B30 + 1</f>
-        <v>8</v>
-      </c>
-      <c r="C32" s="9">
+    <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="100"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="92" t="str">
+        <f t="shared" ref="D30" si="4">C30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="E30" s="90" t="str">
+        <f t="shared" ref="E30" si="5">D30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="F30" s="91" t="str">
+        <f>E30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="G30" s="95" t="str">
+        <f>F30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="H30" s="82" t="str">
+        <f>G30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="I30" s="86" t="str">
+        <f t="shared" ref="I30" si="6">H30</f>
+        <v>WINTER BREAK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="104">
+        <v>9</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="81">
         <f>I15 + 1</f>
         <v>4</v>
       </c>
-      <c r="D32" s="11">
-        <f>C32 + 1</f>
+      <c r="D31" s="7">
+        <f>C31 + 1</f>
         <v>5</v>
       </c>
-      <c r="E32" s="11">
-        <f t="shared" ref="E32:I32" si="7">D32 + 1</f>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31:I31" si="7">D31 + 1</f>
         <v>6</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F31" s="25">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G31" s="25">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H31" s="25">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I31" s="26">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="9" t="str">
-        <f>I31</f>
-        <v>Winter Break</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="64">
-        <f>B32 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="C34" s="37">
-        <f>I32 + 1</f>
+    <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="105"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="81" t="str">
+        <f>I30</f>
+        <v>WINTER BREAK</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="43"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="105">
+        <v>8</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="28">
+        <f>I31 + 1</f>
         <v>11</v>
       </c>
-      <c r="D34" s="11">
-        <f>C34 + 1</f>
+      <c r="D33" s="7">
+        <f>C33 + 1</f>
         <v>12</v>
       </c>
-      <c r="E34" s="11">
-        <f t="shared" ref="E34:I34" si="8">D34 + 1</f>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:I33" si="8">D33 + 1</f>
         <v>13</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F33" s="7">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G33" s="7">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H33" s="7">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I33" s="11">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="55" t="s">
+    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="105"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="51"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="64">
-        <f>B34 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="C36" s="14">
-        <f>I34 + 1</f>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="105">
+        <v>7</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="10">
+        <f>I33 + 1</f>
         <v>18</v>
       </c>
-      <c r="D36" s="34">
-        <f>C36 + 1</f>
+      <c r="D35" s="25">
+        <f>C35 + 1</f>
         <v>19</v>
       </c>
-      <c r="E36" s="11">
-        <f t="shared" ref="E36:I38" si="9">D36 + 1</f>
+      <c r="E35" s="7">
+        <f t="shared" ref="E35:I37" si="9">D35 + 1</f>
         <v>20</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F35" s="25">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G35" s="7">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H35" s="7">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I35" s="11">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="64">
-        <f>B36 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="C38" s="14">
-        <f>I36 + 1</f>
+    <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="105"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="105">
+        <v>6</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="10">
+        <f>I35 + 1</f>
         <v>25</v>
       </c>
-      <c r="D38" s="11">
-        <f>C38 + 1</f>
+      <c r="D37" s="7">
+        <f>C37 + 1</f>
         <v>26</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E37" s="7">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F37" s="25">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G37" s="82">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="H38" s="85">
+      <c r="H37" s="85">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="I38" s="29">
-        <f>H38 + 1</f>
+      <c r="I37" s="86">
+        <f>H37 + 1</f>
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="75">
-        <f>B38 + 1</f>
-        <v>12</v>
-      </c>
-      <c r="C40" s="9">
+    <row r="38" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="106"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104">
+        <v>5</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="81">
         <v>1</v>
       </c>
-      <c r="D40" s="92">
-        <f>C40 + 1</f>
+      <c r="D39" s="96">
+        <f>C39 + 1</f>
         <v>2</v>
       </c>
-      <c r="E40" s="22">
-        <f t="shared" ref="E40:I40" si="10">D40 + 1</f>
+      <c r="E39" s="18">
+        <f t="shared" ref="E39:I39" si="10">D39 + 1</f>
         <v>3</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F39" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G39" s="18">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H39" s="21">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="I40" s="84">
+      <c r="I39" s="51">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="9" t="s">
+    <row r="40" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="105"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="70">
-        <f>B40 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="C42" s="28">
-        <f>I40 + 1</f>
+      <c r="G40" s="17"/>
+      <c r="H40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="105">
+        <v>4</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="24">
+        <f>I39 + 1</f>
         <v>8</v>
       </c>
-      <c r="D42" s="25">
-        <f>C42 + 1</f>
+      <c r="D41" s="21">
+        <f>C41 + 1</f>
         <v>9</v>
       </c>
-      <c r="E42" s="22">
-        <f t="shared" ref="E42:I42" si="11">D42 + 1</f>
+      <c r="E41" s="18">
+        <f t="shared" ref="E41:I41" si="11">D41 + 1</f>
         <v>10</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F41" s="18">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="G42" s="93">
+      <c r="G41" s="55">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="H42" s="93">
+      <c r="H41" s="55">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="I42" s="94">
+      <c r="I41" s="56">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="94"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="70">
-        <f>B42 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="C44" s="99">
-        <f>I42 + 1</f>
+    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="105"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="56"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="105">
+        <v>3</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="61">
+        <f>I41 + 1</f>
         <v>15</v>
       </c>
-      <c r="D44" s="93">
-        <f>C44 + 1</f>
+      <c r="D43" s="55">
+        <f>C43 + 1</f>
         <v>16</v>
       </c>
-      <c r="E44" s="22">
-        <f t="shared" ref="E44:I46" si="12">D44 + 1</f>
+      <c r="E43" s="18">
+        <f t="shared" ref="E43:I45" si="12">D43 + 1</f>
         <v>17</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F43" s="18">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G43" s="18">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H43" s="18">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I43" s="22">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="70">
-        <f>B44 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="C46" s="28">
-        <f>I44 + 1</f>
+    <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="105"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="105">
+        <v>2</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="24">
+        <f>I43 + 1</f>
         <v>22</v>
       </c>
-      <c r="D46" s="22">
-        <f>C46 + 1</f>
+      <c r="D45" s="18">
+        <f>C45 + 1</f>
         <v>23</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E45" s="18">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F45" s="18">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G45" s="18">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H45" s="18">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I45" s="22">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="70">
-        <f>B46 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="C48" s="28">
-        <f>I46 + 1</f>
+    <row r="46" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="105"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="105">
+        <f>A50 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="24">
+        <f>I45 + 1</f>
         <v>29</v>
       </c>
-      <c r="D48" s="83">
-        <f>C48 + 1</f>
+      <c r="D47" s="50">
+        <f>C47 + 1</f>
         <v>30</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E47" s="47">
         <v>1</v>
       </c>
-      <c r="F48" s="7">
-        <f>E48 + 1</f>
+      <c r="F47" s="5">
+        <f>E47 + 1</f>
         <v>2</v>
       </c>
-      <c r="G48" s="7">
-        <f>F48 + 1</f>
+      <c r="G47" s="5">
+        <f>F47 + 1</f>
         <v>3</v>
       </c>
-      <c r="H48" s="7">
-        <f>G48 + 1</f>
+      <c r="H47" s="5">
+        <f>G47 + 1</f>
         <v>4</v>
       </c>
-      <c r="I48" s="8">
-        <f>H48 + 1</f>
+      <c r="I47" s="6">
+        <f>H47 + 1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="101"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+    <row r="48" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="106"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="62"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="99">
+        <v>0</v>
+      </c>
+      <c r="B49" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="68">
-        <f>B48 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="C50" s="14">
-        <f>I48 + 1</f>
+      <c r="C49" s="10">
+        <f>I47 + 1</f>
         <v>6</v>
       </c>
-      <c r="D50" s="34">
-        <f>C50 + 1</f>
+      <c r="D49" s="25">
+        <f>C49 + 1</f>
         <v>7</v>
       </c>
-      <c r="E50" s="11">
-        <f t="shared" ref="E50:I50" si="13">D50 + 1</f>
+      <c r="E49" s="7">
+        <f t="shared" ref="E49:I49" si="13">D49 + 1</f>
         <v>8</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F49" s="25">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G49" s="7">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H49" s="7">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I49" s="11">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="100"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Monday</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>Team session: Analysis model presentation and discussion</t>
-  </si>
-  <si>
-    <t>Team Use Cases
-(in-class session)</t>
-  </si>
-  <si>
-    <t>Use Case Exercise
-(in class session)</t>
-  </si>
-  <si>
-    <t>OO Analysis exercise
-(in class session)</t>
   </si>
   <si>
     <t>SPRING BREAK</t>
@@ -58,10 +46,6 @@
 (in class)</t>
   </si>
   <si>
-    <t>Team Analysis Model
-(in-class session)</t>
-  </si>
-  <si>
     <t>A06: Team Problem Domain Analysis due
 (Violet UML &amp; Google Doc)</t>
   </si>
@@ -78,9 +62,6 @@
   </si>
   <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Week</t>
   </si>
   <si>
     <t>January</t>
@@ -100,45 +81,16 @@
 (in-class)</t>
   </si>
   <si>
-    <t>A03: Team MS2
-Progress on Features</t>
-  </si>
-  <si>
-    <t>A03: Team MS3
-75% working system
-(w/SQL DB)</t>
-  </si>
-  <si>
-    <t>A04: Ind MS2
-33% Working Progresss</t>
-  </si>
-  <si>
     <t>A03: Team MS1
 Minimal Working System</t>
   </si>
   <si>
-    <t>A04: Ind MS1
-Baseline Prototype</t>
-  </si>
-  <si>
-    <t>A04: Ind MS3
-67% Working Progress</t>
-  </si>
-  <si>
     <t>Library Example and Exam Review
 (in-class)</t>
   </si>
   <si>
     <t>A01: Team Project Proposal due
 (Google Doc)</t>
-  </si>
-  <si>
-    <t>A05: Use Cases due
-(Google Doc)</t>
-  </si>
-  <si>
-    <t>A04: Ind MS4
-Final Project Demo</t>
   </si>
   <si>
     <t>**LAST CLASS**
@@ -150,10 +102,6 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t>A09: Ind Code and Report due
-(Marmoset)</t>
-  </si>
-  <si>
     <t>Lab 5: JDBC due
 (Marmoset)</t>
   </si>
@@ -163,10 +111,6 @@
   </si>
   <si>
     <t>Lab 6: ORM due (Marmoset)</t>
-  </si>
-  <si>
-    <t>SQL/JDBC/ORM Review &amp; Labs
-(in-class)</t>
   </si>
   <si>
     <t>A02: Individual Project Proposal due
@@ -191,23 +135,8 @@
 (as of 12-23-2018, subject to change)</t>
   </si>
   <si>
-    <t>Lecture 6: Development Processes
-UD-Chapter 2</t>
-  </si>
-  <si>
     <t>Lecture 7:
 Agile Development and Scrum</t>
-  </si>
-  <si>
-    <t>Lecture 8: Requirements, Use Cases
-(UD, Chapter 9)</t>
-  </si>
-  <si>
-    <t>Lecture 9:
-UML  Diagrams
-(UD, Chapter 3)
-Lecture 10:
-OO Analysis</t>
   </si>
   <si>
     <t>Lecture 11: OO Design, OCP, LSP
@@ -338,9 +267,6 @@
     </r>
   </si>
   <si>
-    <t>Lab Due</t>
-  </si>
-  <si>
     <t>Exam</t>
   </si>
   <si>
@@ -353,18 +279,94 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Individual Project Milestone Due</t>
+    <t>Lab or Assignment Due</t>
+  </si>
+  <si>
+    <t>Individual Project Milestone</t>
   </si>
   <si>
     <t>Team Project
-Milestone Due</t>
+Milestone</t>
+  </si>
+  <si>
+    <t>Lecture 6: Development Processes
+(UD: Chapter 2)</t>
+  </si>
+  <si>
+    <t>Lecture 8: Requirements, Use Cases
+(UD: Chapter 9)</t>
+  </si>
+  <si>
+    <t>Lecture 9:
+UML  Diagrams
+(UD: Chapter 3)
+Lecture 10:
+OO Analysis</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>A03: Team MS2
+50% Progress on Features</t>
+  </si>
+  <si>
+    <t>SQL/JDBC/ORM Review &amp; Labs
+(in class)</t>
+  </si>
+  <si>
+    <t>Use Case Exercise
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Use Cases
+(in class)</t>
+  </si>
+  <si>
+    <t>OO Analysis exercise
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Analysis Model
+(in class)</t>
+  </si>
+  <si>
+    <t>A03: Team MS3
+75% Working System
+(w/SQL DB)</t>
+  </si>
+  <si>
+    <t>A05: Team
+Use Cases due
+(Google Doc)</t>
+  </si>
+  <si>
+    <t>A04: Individual MS1 Baseline Prototype</t>
+  </si>
+  <si>
+    <t>A04: Individual MS2
+33% Progresss</t>
+  </si>
+  <si>
+    <t>A04: Individual MS3
+67% Progress</t>
+  </si>
+  <si>
+    <t>A04: Individual MS4 Final Project Demo</t>
+  </si>
+  <si>
+    <t>A09: Individual Code &amp; Report due
+(Marmoset)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +442,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1059,9 +1068,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,9 +1089,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,21 +1113,135 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1134,127 +1251,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1564,7 +1573,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,25 +1591,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
+      <c r="A1" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1618,24 +1627,24 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104">
+      <c r="A3" s="94">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="83">
+      <c r="B3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="84">
+      <c r="C3" s="66">
+        <v>14</v>
+      </c>
+      <c r="D3" s="67">
         <f>C3 + 1</f>
         <v>15</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="67">
         <f t="shared" ref="E3:I3" si="0">D3 + 1</f>
         <v>16</v>
       </c>
@@ -1657,31 +1666,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>15</v>
+      <c r="A4" s="87"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105">
+      <c r="A5" s="87">
         <v>15</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1712,29 +1721,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="80" t="s">
-        <v>14</v>
+      <c r="A6" s="87"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="63" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="87">
         <v>14</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1747,7 +1756,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <f>E7+1</f>
         <v>31</v>
       </c>
@@ -1764,32 +1773,32 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63" t="s">
-        <v>31</v>
+      <c r="A8" s="88"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="110" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="57" t="s">
-        <v>43</v>
+      <c r="F8" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104">
+      <c r="A9" s="94">
         <v>13</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>20</v>
+      <c r="B9" s="101" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="20">
         <f>I7 + 1</f>
@@ -1821,29 +1830,29 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="80" t="s">
-        <v>57</v>
+      <c r="A10" s="87"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105">
+      <c r="A11" s="87">
         <v>12</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1874,17 +1883,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="64" t="s">
-        <v>32</v>
+      <c r="A12" s="87"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
@@ -1893,10 +1902,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105">
+      <c r="A13" s="87">
         <v>11</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1921,98 +1930,98 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="69">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="52" t="s">
-        <v>51</v>
+      <c r="F14" s="51" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>9</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105">
+      <c r="A15" s="87">
         <v>10</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="81">
+      <c r="B15" s="102"/>
+      <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="65">
         <f>C15 + 1</f>
         <v>26</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="68">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="69">
         <f>E15 + 1</f>
         <v>28</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="66">
         <v>1</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="67">
         <f>G15 + 1</f>
         <v>2</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="70">
         <f>H15 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="89" t="str">
+      <c r="A16" s="88"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="72" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E16" s="90" t="str">
+      <c r="E16" s="73" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F16" s="91" t="str">
+      <c r="F16" s="74" t="str">
         <f>E16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G16" s="88" t="str">
+      <c r="G16" s="71" t="str">
         <f>F16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H16" s="92" t="str">
+      <c r="H16" s="75" t="str">
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="91" t="str">
+      <c r="I16" s="74" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
       <c r="B17" s="35"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -2022,84 +2031,81 @@
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="107" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="111" t="s">
+        <v>58</v>
+      </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:11" s="37" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="108" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="82" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="109" t="s">
-        <v>69</v>
-      </c>
       <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="83" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+    <row r="21" spans="1:11" s="39" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="110" t="s">
-        <v>70</v>
-      </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="84" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+    <row r="22" spans="1:11" s="39" customFormat="1" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="111" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="85" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+    <row r="23" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="97"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="86" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+    <row r="24" spans="1:11" s="37" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
       <c r="B24" s="40"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -2110,7 +2116,7 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="40"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -2121,7 +2127,7 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="35"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2132,121 +2138,132 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="str">
+      <c r="A27" s="91" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
 (as of 12-23-2018, subject to change)</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f>A2</f>
+        <v>Weeks</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:I28" si="3">B2</f>
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Friday</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Saturday</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103">
+      <c r="A29" s="95">
         <v>10</v>
       </c>
-      <c r="B29" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="81">
+      <c r="B29" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="64">
         <f>C15</f>
         <v>25</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="65">
         <f>C29 + 1</f>
         <v>26</v>
       </c>
-      <c r="E29" s="85">
-        <f t="shared" ref="E29" si="3">D29 + 1</f>
+      <c r="E29" s="68">
+        <f t="shared" ref="E29" si="4">D29 + 1</f>
         <v>27</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="70">
         <f>F15</f>
         <v>28</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G29" s="76">
         <v>1</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="67">
         <f>G29 + 1</f>
         <v>2</v>
       </c>
-      <c r="I29" s="87">
+      <c r="I29" s="70">
         <f>H29 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="92" t="str">
-        <f t="shared" ref="D30" si="4">C30</f>
+      <c r="A30" s="90"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="75" t="str">
+        <f t="shared" ref="D30" si="5">C30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E30" s="90" t="str">
-        <f t="shared" ref="E30" si="5">D30</f>
+      <c r="E30" s="73" t="str">
+        <f t="shared" ref="E30" si="6">D30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F30" s="91" t="str">
+      <c r="F30" s="74" t="str">
         <f>E30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G30" s="95" t="str">
+      <c r="G30" s="78" t="str">
         <f>F30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H30" s="82" t="str">
+      <c r="H30" s="65" t="str">
         <f>G30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I30" s="86" t="str">
-        <f t="shared" ref="I30" si="6">H30</f>
+      <c r="I30" s="69" t="str">
+        <f t="shared" ref="I30" si="7">H30</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104">
+      <c r="A31" s="94">
         <v>9</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="81">
+      <c r="B31" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="64">
         <f>I15 + 1</f>
         <v>4</v>
       </c>
@@ -2255,56 +2272,56 @@
         <v>5</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" ref="E31:I31" si="7">D31 + 1</f>
+        <f t="shared" ref="E31:I31" si="8">D31 + 1</f>
         <v>6</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I31" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="81" t="str">
+      <c r="A32" s="87"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="78" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="105">
+      <c r="A33" s="87">
         <v>8</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2314,51 +2331,51 @@
         <v>12</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" ref="E33:I33" si="8">D33 + 1</f>
+        <f t="shared" ref="E33:I33" si="9">D33 + 1</f>
         <v>13</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
-      <c r="B34" s="74"/>
+    <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="79" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>26</v>
       </c>
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="105">
+      <c r="A35" s="87">
         <v>7</v>
       </c>
-      <c r="B35" s="74"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2368,48 +2385,48 @@
         <v>19</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" ref="E35:I37" si="9">D35 + 1</f>
+        <f t="shared" ref="E35:I37" si="10">D35 + 1</f>
         <v>20</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105">
+      <c r="A37" s="87">
         <v>6</v>
       </c>
-      <c r="B37" s="74"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2419,106 +2436,108 @@
         <v>26</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="G37" s="82">
-        <f t="shared" si="9"/>
+      <c r="G37" s="65">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="H37" s="85">
-        <f t="shared" si="9"/>
+      <c r="H37" s="68">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="I37" s="86">
+      <c r="I37" s="69">
         <f>H37 + 1</f>
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="106"/>
-      <c r="B38" s="67"/>
+    <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="91" t="s">
-        <v>10</v>
+      <c r="F38" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="74" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="104">
+      <c r="A39" s="94">
         <v>5</v>
       </c>
-      <c r="B39" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="81">
+      <c r="B39" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="64">
         <v>1</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="79">
         <f>C39 + 1</f>
         <v>2</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" ref="E39:I39" si="10">D39 + 1</f>
+        <f t="shared" ref="E39:I39" si="11">D39 + 1</f>
         <v>3</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I39" s="51">
-        <f t="shared" si="10"/>
+      <c r="I39" s="50">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>10</v>
+    <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>7</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="19"/>
+      <c r="H40" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="105">
+      <c r="A41" s="87">
         <v>4</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2528,101 +2547,99 @@
         <v>9</v>
       </c>
       <c r="E41" s="18">
-        <f t="shared" ref="E41:I41" si="11">D41 + 1</f>
+        <f t="shared" ref="E41:I41" si="12">D41 + 1</f>
         <v>10</v>
       </c>
       <c r="F41" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="G41" s="55">
-        <f t="shared" si="11"/>
+      <c r="G41" s="53">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="H41" s="55">
-        <f t="shared" si="11"/>
+      <c r="H41" s="53">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I41" s="56">
-        <f t="shared" si="11"/>
+      <c r="I41" s="54">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="64" t="s">
-        <v>55</v>
-      </c>
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="45" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="55"/>
+        <v>8</v>
+      </c>
+      <c r="G42" s="53"/>
       <c r="H42" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="56"/>
+        <v>8</v>
+      </c>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="105">
+      <c r="A43" s="87">
         <v>3</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="61">
+      <c r="B43" s="105"/>
+      <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="53">
         <f>C43 + 1</f>
         <v>16</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" ref="E43:I45" si="12">D43 + 1</f>
+        <f t="shared" ref="E43:I45" si="13">D43 + 1</f>
         <v>17</v>
       </c>
       <c r="F43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="G43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="H43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="105"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="105">
+      <c r="A45" s="87">
         <v>2</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2632,60 +2649,60 @@
         <v>23</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="F45" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="69"/>
+    <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>71</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="105">
+      <c r="A47" s="87">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="69"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="49">
         <f>C47 + 1</f>
         <v>30</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="46">
         <v>1</v>
       </c>
       <c r="F47" s="5">
@@ -2705,28 +2722,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="106"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="48"/>
+    <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="88"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="47"/>
       <c r="F48" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="62"/>
+        <v>22</v>
+      </c>
+      <c r="G48" s="60"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="46" t="s">
-        <v>35</v>
+      <c r="I48" s="62" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99">
+      <c r="A49" s="89">
         <v>0</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2738,36 +2755,36 @@
         <v>7</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="E49:I49" si="13">D49 + 1</f>
+        <f t="shared" ref="E49:I49" si="14">D49 + 1</f>
         <v>8</v>
       </c>
       <c r="F49" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="I49" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="33" t="s">
-        <v>56</v>
+      <c r="E50" s="109" t="s">
+        <v>39</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="14"/>
@@ -2776,16 +2793,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2800,6 +2807,16 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B39:B48"/>
   </mergeCells>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Monday</t>
   </si>
@@ -127,14 +127,6 @@
 BD Guest Lecturer</t>
   </si>
   <si>
-    <t>Web Applications Exercise &amp; Lab 2
-(in class)</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 12-23-2018, subject to change)</t>
-  </si>
-  <si>
     <t>Lecture 7:
 Agile Development and Scrum</t>
   </si>
@@ -167,10 +159,6 @@
 (Marmoset)
 A11: Team Project
 Final Self/Peer Evaluations due
-(Marmoset)</t>
-  </si>
-  <si>
-    <t>Lab 2: Web Apps due
 (Marmoset)</t>
   </si>
   <si>
@@ -197,23 +185,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lecture 4: Web Applications
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 2: Web Applications assigned</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lecture 13: Relational Databases
 </t>
     </r>
@@ -360,6 +331,39 @@
   <si>
     <t>A09: Individual Code &amp; Report due
 (Marmoset)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture 4: Web Applications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 2a: Web Applications assigned</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab 2a: Web Apps II due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Lab 2: Web Apps I due
+(Marmoset)</t>
+  </si>
+  <si>
+    <t>Web Applications I Exercise &amp; Lab 2
+(in class)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 1-16-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1191,31 +1195,43 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1258,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1251,19 +1270,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1572,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,21 +1598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
+      <c r="A1" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1631,10 +1638,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94">
+      <c r="A3" s="99">
         <v>16</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="66">
@@ -1666,8 +1673,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="64" t="s">
         <v>11</v>
       </c>
@@ -1678,19 +1685,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87">
+      <c r="A5" s="92">
         <v>15</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1721,29 +1728,31 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="112"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1768,18 +1777,18 @@
         <v>2</v>
       </c>
       <c r="I7" s="13">
-        <f>H7 + 1</f>
+        <f>H7+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="110" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="55" t="s">
@@ -1787,17 +1796,17 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="99">
         <v>13</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="20">
@@ -1830,29 +1839,29 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="63" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87">
+      <c r="A11" s="92">
         <v>12</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1883,17 +1892,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
@@ -1902,10 +1911,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1936,19 +1945,19 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="62" t="s">
         <v>9</v>
@@ -1957,10 +1966,10 @@
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87">
+      <c r="A15" s="92">
         <v>10</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -1990,10 +1999,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -2035,8 +2044,8 @@
       <c r="A18" s="81"/>
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111" t="s">
-        <v>58</v>
+      <c r="E18" s="91" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2048,7 +2057,7 @@
       <c r="B19" s="40"/>
       <c r="D19" s="34"/>
       <c r="E19" s="82" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2060,7 +2069,7 @@
       <c r="B20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="83" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2072,7 +2081,7 @@
       <c r="B21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -2084,7 +2093,7 @@
       <c r="B22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="85" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -2097,7 +2106,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="38"/>
       <c r="E23" s="86" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -2138,19 +2147,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="str">
+      <c r="A27" s="94" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 12-23-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
+(as of 1-16-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2191,11 +2200,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95">
+      <c r="A29" s="97">
         <v>10</v>
       </c>
-      <c r="B29" s="96" t="s">
-        <v>50</v>
+      <c r="B29" s="100" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="64">
         <f>C15</f>
@@ -2226,10 +2235,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="77" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" s="75" t="str">
         <f t="shared" ref="D30" si="5">C30</f>
@@ -2257,10 +2266,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94">
+      <c r="A31" s="99">
         <v>9</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="64">
@@ -2293,24 +2302,24 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I32" s="61" t="s">
         <v>24</v>
@@ -2318,10 +2327,10 @@
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
+      <c r="A33" s="92">
         <v>8</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2352,19 +2361,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="99"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I34" s="62" t="s">
         <v>26</v>
@@ -2372,10 +2381,10 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87">
+      <c r="A35" s="92">
         <v>7</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2406,15 +2415,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -2423,10 +2432,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87">
+      <c r="A37" s="92">
         <v>6</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2457,11 +2466,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="56" t="s">
@@ -2478,10 +2487,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94">
+      <c r="A39" s="99">
         <v>5</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="109" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="64">
@@ -2513,8 +2522,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="64" t="s">
         <v>7</v>
       </c>
@@ -2526,18 +2535,18 @@
         <v>8</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="108" t="s">
-        <v>59</v>
+      <c r="H40" s="88" t="s">
+        <v>55</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="87">
+      <c r="A41" s="92">
         <v>4</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2568,11 +2577,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="107"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
@@ -2585,10 +2594,10 @@
       <c r="I42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87">
+      <c r="A43" s="92">
         <v>3</v>
       </c>
-      <c r="B43" s="105"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2619,11 +2628,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
@@ -2636,10 +2645,10 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87">
+      <c r="A45" s="92">
         <v>2</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2670,14 +2679,14 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>8</v>
@@ -2689,11 +2698,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="87">
+      <c r="A47" s="92">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="105"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2723,8 +2732,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="88"/>
-      <c r="B48" s="106"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
         <v>8</v>
@@ -2740,10 +2749,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
+      <c r="A49" s="108">
         <v>0</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2776,12 +2785,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="109" t="s">
-        <v>39</v>
+      <c r="E50" s="89" t="s">
+        <v>37</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>28</v>
@@ -2793,6 +2802,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2807,18 +2828,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="15825" windowHeight="12075"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -121,10 +126,6 @@
 A08: Team Presentation and Demonstration
 (in class)
 </t>
-  </si>
-  <si>
-    <t>Agile &amp; Scrum
-BD Guest Lecturer</t>
   </si>
   <si>
     <t>Lecture 7:
@@ -363,7 +364,12 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-16-2018, subject to change)</t>
+(as of 1-26-2018, subject to change)</t>
+  </si>
+  <si>
+    <t>Web Applications II
+(Lab 2a)
+(in class)</t>
   </si>
 </sst>
 </file>
@@ -1210,12 +1216,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,13 +1240,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,15 +1267,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1257,21 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1368,7 +1374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1580,12 +1586,12 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
@@ -1598,21 +1604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1638,10 +1644,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99">
+      <c r="A3" s="100">
         <v>16</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="66">
@@ -1673,8 +1679,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="64" t="s">
         <v>11</v>
       </c>
@@ -1685,19 +1691,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="93">
         <v>15</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1728,31 +1734,31 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="112"/>
+        <v>72</v>
+      </c>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="93">
         <v>14</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1782,13 +1788,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="55" t="s">
@@ -1796,17 +1802,17 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99">
+      <c r="A9" s="100">
         <v>13</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="110" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="20">
@@ -1839,29 +1845,29 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="93">
         <v>12</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1892,17 +1898,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
@@ -1911,10 +1917,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92">
+      <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1945,19 +1951,19 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="62" t="s">
         <v>9</v>
@@ -1966,10 +1972,10 @@
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92">
+      <c r="A15" s="93">
         <v>10</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -1999,10 +2005,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -2045,7 +2051,7 @@
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
       <c r="E18" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2057,7 +2063,7 @@
       <c r="B19" s="40"/>
       <c r="D19" s="34"/>
       <c r="E19" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2069,7 +2075,7 @@
       <c r="B20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2081,7 +2087,7 @@
       <c r="B21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -2093,7 +2099,7 @@
       <c r="B22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -2106,7 +2112,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="38"/>
       <c r="E23" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -2147,19 +2153,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="str">
+      <c r="A27" s="97" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-16-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
+(as of 1-26-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2200,11 +2206,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="106">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
-        <v>46</v>
+      <c r="B29" s="107" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="64">
         <f>C15</f>
@@ -2235,10 +2241,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="75" t="str">
         <f t="shared" ref="D30" si="5">C30</f>
@@ -2266,10 +2272,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99">
+      <c r="A31" s="100">
         <v>9</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="64">
@@ -2302,24 +2308,24 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="61" t="s">
         <v>24</v>
@@ -2327,10 +2333,10 @@
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
+      <c r="A33" s="93">
         <v>8</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2361,19 +2367,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="62" t="s">
         <v>26</v>
@@ -2381,10 +2387,10 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
+      <c r="A35" s="93">
         <v>7</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2415,15 +2421,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -2432,10 +2438,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92">
+      <c r="A37" s="93">
         <v>6</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2466,11 +2472,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="56" t="s">
@@ -2487,10 +2493,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="99">
+      <c r="A39" s="100">
         <v>5</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="64">
@@ -2522,8 +2528,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="64" t="s">
         <v>7</v>
       </c>
@@ -2536,17 +2542,17 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92">
+      <c r="A41" s="93">
         <v>4</v>
       </c>
-      <c r="B41" s="110"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2577,11 +2583,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
@@ -2594,10 +2600,10 @@
       <c r="I42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="A43" s="93">
         <v>3</v>
       </c>
-      <c r="B43" s="110"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2628,11 +2634,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
@@ -2645,10 +2651,10 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
+      <c r="A45" s="93">
         <v>2</v>
       </c>
-      <c r="B45" s="110"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2679,14 +2685,14 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="61" t="s">
         <v>66</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>67</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>8</v>
@@ -2698,11 +2704,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="92">
+      <c r="A47" s="93">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2732,8 +2738,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="93"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
         <v>8</v>
@@ -2749,10 +2755,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+      <c r="A49" s="95">
         <v>0</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2785,12 +2791,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>28</v>
@@ -2802,18 +2808,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2828,6 +2822,18 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="15825" windowHeight="12075"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -126,10 +121,6 @@
 A08: Team Presentation and Demonstration
 (in class)
 </t>
-  </si>
-  <si>
-    <t>Lecture 7:
-Agile Development and Scrum</t>
   </si>
   <si>
     <t>Lecture 11: OO Design, OCP, LSP
@@ -363,13 +354,19 @@
 (in class)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-26-2018, subject to change)</t>
-  </si>
-  <si>
     <t>Web Applications II
 (Lab 2a)
 (in class)</t>
+  </si>
+  <si>
+    <t>Lecture 7:
+Agile &amp; Scrum
+(Agile Manifesto)
+(Scrum Guide)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 1-29-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1225,30 +1222,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1256,27 +1274,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,7 +1371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1586,7 +1583,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,21 +1601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="A1" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1647,7 +1644,7 @@
       <c r="A3" s="100">
         <v>16</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="103" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="66">
@@ -1680,7 +1677,7 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
-      <c r="B4" s="109"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="64" t="s">
         <v>11</v>
       </c>
@@ -1691,11 +1688,11 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -1703,7 +1700,7 @@
       <c r="A5" s="93">
         <v>15</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1735,22 +1732,22 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="109"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -1758,7 +1755,7 @@
       <c r="A7" s="93">
         <v>14</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1789,20 +1786,20 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="102"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="55" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>27</v>
@@ -1812,7 +1809,7 @@
       <c r="A9" s="100">
         <v>13</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="106" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="20">
@@ -1846,20 +1843,20 @@
     </row>
     <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
-      <c r="B10" s="111"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -1867,7 +1864,7 @@
       <c r="A11" s="93">
         <v>12</v>
       </c>
-      <c r="B11" s="111"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1899,16 +1896,16 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
-      <c r="B12" s="111"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
@@ -1920,7 +1917,7 @@
       <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1952,18 +1949,18 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
-      <c r="B14" s="111"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="62" t="s">
         <v>9</v>
@@ -1975,7 +1972,7 @@
       <c r="A15" s="93">
         <v>10</v>
       </c>
-      <c r="B15" s="111"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2006,9 +2003,9 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="112"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -2051,7 +2048,7 @@
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
       <c r="E18" s="91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2063,7 +2060,7 @@
       <c r="B19" s="40"/>
       <c r="D19" s="34"/>
       <c r="E19" s="82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2075,7 +2072,7 @@
       <c r="B20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2087,7 +2084,7 @@
       <c r="B21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -2099,7 +2096,7 @@
       <c r="B22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -2112,7 +2109,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="38"/>
       <c r="E23" s="86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -2153,19 +2150,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="str">
+      <c r="A27" s="95" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-26-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+(as of 1-29-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2206,11 +2203,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
+      <c r="A29" s="98">
         <v>10</v>
       </c>
-      <c r="B29" s="107" t="s">
-        <v>45</v>
+      <c r="B29" s="101" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="64">
         <f>C15</f>
@@ -2241,10 +2238,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="75" t="str">
         <f t="shared" ref="D30" si="5">C30</f>
@@ -2275,7 +2272,7 @@
       <c r="A31" s="100">
         <v>9</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="64">
@@ -2309,23 +2306,23 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
-      <c r="B32" s="109"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I32" s="61" t="s">
         <v>24</v>
@@ -2336,7 +2333,7 @@
       <c r="A33" s="93">
         <v>8</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2368,18 +2365,18 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
-      <c r="B34" s="109"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="62" t="s">
         <v>26</v>
@@ -2390,7 +2387,7 @@
       <c r="A35" s="93">
         <v>7</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2422,14 +2419,14 @@
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
-      <c r="B36" s="109"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -2441,7 +2438,7 @@
       <c r="A37" s="93">
         <v>6</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2473,10 +2470,10 @@
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
-      <c r="B38" s="102"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="56" t="s">
@@ -2496,7 +2493,7 @@
       <c r="A39" s="100">
         <v>5</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="110" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="64">
@@ -2529,7 +2526,7 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
-      <c r="B40" s="104"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="64" t="s">
         <v>7</v>
       </c>
@@ -2542,17 +2539,17 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>4</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2584,10 +2581,10 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
-      <c r="B42" s="104"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
@@ -2603,7 +2600,7 @@
       <c r="A43" s="93">
         <v>3</v>
       </c>
-      <c r="B43" s="104"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2635,10 +2632,10 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="104"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
@@ -2654,7 +2651,7 @@
       <c r="A45" s="93">
         <v>2</v>
       </c>
-      <c r="B45" s="104"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2686,13 +2683,13 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="93"/>
-      <c r="B46" s="104"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="61" t="s">
         <v>65</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>66</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>8</v>
@@ -2708,7 +2705,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="104"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2739,7 +2736,7 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="94"/>
-      <c r="B48" s="105"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
         <v>8</v>
@@ -2755,10 +2752,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
+      <c r="A49" s="109">
         <v>0</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2791,12 +2788,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>28</v>
@@ -2808,6 +2805,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2822,18 +2831,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -256,10 +256,6 @@
 (UD: Chapter 2)</t>
   </si>
   <si>
-    <t>Lecture 8: Requirements, Use Cases
-(UD: Chapter 9)</t>
-  </si>
-  <si>
     <t>Lecture 9:
 UML  Diagrams
 (UD: Chapter 3)
@@ -278,10 +274,6 @@
   </si>
   <si>
     <t>SQL/JDBC/ORM Review &amp; Labs
-(in class)</t>
-  </si>
-  <si>
-    <t>Use Case Exercise
 (in class)</t>
   </si>
   <si>
@@ -366,7 +358,17 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-29-2018, subject to change)</t>
+(as of 2-4-2018, subject to change)</t>
+  </si>
+  <si>
+    <t>Lecture 8: Requirements, Use Cases
+(UD: Chapter 9)
+Use Case Exercise
+(in class)</t>
+  </si>
+  <si>
+    <t>User Requirements Exercise
+(in class)</t>
   </si>
 </sst>
 </file>
@@ -1222,6 +1224,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,13 +1239,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,15 +1266,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1262,18 +1276,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,21 +1603,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1644,7 +1646,7 @@
       <c r="A3" s="100">
         <v>16</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="66">
@@ -1677,7 +1679,7 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
-      <c r="B4" s="104"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="64" t="s">
         <v>11</v>
       </c>
@@ -1700,7 +1702,7 @@
       <c r="A5" s="93">
         <v>15</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1732,22 +1734,22 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -1755,7 +1757,7 @@
       <c r="A7" s="93">
         <v>14</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1786,7 +1788,7 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="105"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
@@ -1795,11 +1797,11 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>27</v>
@@ -1809,7 +1811,7 @@
       <c r="A9" s="100">
         <v>13</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="110" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="20">
@@ -1841,22 +1843,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
-      <c r="B10" s="107"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -1864,7 +1866,7 @@
       <c r="A11" s="93">
         <v>12</v>
       </c>
-      <c r="B11" s="107"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1896,16 +1898,16 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
-      <c r="B12" s="107"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
@@ -1917,7 +1919,7 @@
       <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1949,7 +1951,7 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
-      <c r="B14" s="107"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>29</v>
@@ -1972,7 +1974,7 @@
       <c r="A15" s="93">
         <v>10</v>
       </c>
-      <c r="B15" s="107"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2003,7 +2005,7 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="108"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="71" t="s">
         <v>42</v>
       </c>
@@ -2048,7 +2050,7 @@
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
       <c r="E18" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2150,19 +2152,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="str">
+      <c r="A27" s="97" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 1-29-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+(as of 2-4-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2203,10 +2205,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98">
+      <c r="A29" s="106">
         <v>10</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="64">
@@ -2238,8 +2240,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="77" t="s">
         <v>42</v>
       </c>
@@ -2272,7 +2274,7 @@
       <c r="A31" s="100">
         <v>9</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="64">
@@ -2306,7 +2308,7 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
-      <c r="B32" s="104"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2333,7 +2335,7 @@
       <c r="A33" s="93">
         <v>8</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2365,14 +2367,14 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
-      <c r="B34" s="104"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
@@ -2387,7 +2389,7 @@
       <c r="A35" s="93">
         <v>7</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2419,7 +2421,7 @@
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
-      <c r="B36" s="104"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>19</v>
@@ -2438,7 +2440,7 @@
       <c r="A37" s="93">
         <v>6</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2470,10 +2472,10 @@
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
-      <c r="B38" s="105"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="56" t="s">
@@ -2493,7 +2495,7 @@
       <c r="A39" s="100">
         <v>5</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="64">
@@ -2526,7 +2528,7 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
-      <c r="B40" s="111"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="64" t="s">
         <v>7</v>
       </c>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="62" t="s">
         <v>34</v>
@@ -2549,7 +2551,7 @@
       <c r="A41" s="93">
         <v>4</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2581,10 +2583,10 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
-      <c r="B42" s="111"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
@@ -2600,7 +2602,7 @@
       <c r="A43" s="93">
         <v>3</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2632,10 +2634,10 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="111"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
@@ -2651,7 +2653,7 @@
       <c r="A45" s="93">
         <v>2</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2683,13 +2685,13 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="93"/>
-      <c r="B46" s="111"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>8</v>
@@ -2705,7 +2707,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="94"/>
-      <c r="B48" s="112"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
         <v>8</v>
@@ -2752,10 +2754,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="95">
         <v>0</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2788,8 +2790,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="89" t="s">
@@ -2805,18 +2807,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2831,6 +2821,18 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -36,9 +36,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>Team session: Analysis model presentation and discussion</t>
-  </si>
-  <si>
     <t>SPRING BREAK</t>
   </si>
   <si>
@@ -277,18 +274,6 @@
 (in class)</t>
   </si>
   <si>
-    <t>Team Use Cases
-(in class)</t>
-  </si>
-  <si>
-    <t>OO Analysis exercise
-(in class)</t>
-  </si>
-  <si>
-    <t>Team Analysis Model
-(in class)</t>
-  </si>
-  <si>
     <t>A03: Team MS3
 75% Working System
 (w/SQL DB)</t>
@@ -368,6 +353,25 @@
   </si>
   <si>
     <t>User Requirements Exercise
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Session:
+Textual Analysis
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Session:
+Analysis Model (UML)
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Session: Analysis model presentation and discussion
+(in class)</t>
+  </si>
+  <si>
+    <t>Team Session:
+Use Cases
 (in class)</t>
   </si>
 </sst>
@@ -1224,30 +1228,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1255,27 +1280,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1585,7 +1589,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,25 +1607,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="A1" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1639,15 +1643,15 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100">
         <v>16</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>14</v>
+      <c r="B3" s="103" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="66">
         <v>14</v>
@@ -1679,22 +1683,22 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
-      <c r="B4" s="109"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -1702,7 +1706,7 @@
       <c r="A5" s="93">
         <v>15</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1734,22 +1738,22 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="109"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -1757,7 +1761,7 @@
       <c r="A7" s="93">
         <v>14</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1788,31 +1792,31 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="102"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100">
         <v>13</v>
       </c>
-      <c r="B9" s="110" t="s">
-        <v>15</v>
+      <c r="B9" s="106" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="20">
         <f>I7 + 1</f>
@@ -1845,20 +1849,20 @@
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
-      <c r="B10" s="111"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -1866,7 +1870,7 @@
       <c r="A11" s="93">
         <v>12</v>
       </c>
-      <c r="B11" s="111"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1898,20 +1902,20 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
-      <c r="B12" s="111"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="63" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -1919,7 +1923,7 @@
       <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1951,21 +1955,21 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
-      <c r="B14" s="111"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -1974,7 +1978,7 @@
       <c r="A15" s="93">
         <v>10</v>
       </c>
-      <c r="B15" s="111"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2005,9 +2009,9 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="112"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -2050,7 +2054,7 @@
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
       <c r="E18" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2062,7 +2066,7 @@
       <c r="B19" s="40"/>
       <c r="D19" s="34"/>
       <c r="E19" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2074,7 +2078,7 @@
       <c r="B20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2086,7 +2090,7 @@
       <c r="B21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -2098,7 +2102,7 @@
       <c r="B22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -2111,7 +2115,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="38"/>
       <c r="E23" s="86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -2152,19 +2156,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="str">
+      <c r="A27" s="95" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
 (as of 2-4-2018, subject to change)</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2205,11 +2209,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
+      <c r="A29" s="98">
         <v>10</v>
       </c>
-      <c r="B29" s="107" t="s">
-        <v>44</v>
+      <c r="B29" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="64">
         <f>C15</f>
@@ -2240,10 +2244,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="75" t="str">
         <f t="shared" ref="D30" si="5">C30</f>
@@ -2274,8 +2278,8 @@
       <c r="A31" s="100">
         <v>9</v>
       </c>
-      <c r="B31" s="101" t="s">
-        <v>16</v>
+      <c r="B31" s="103" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="64">
         <f>I15 + 1</f>
@@ -2308,26 +2312,26 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
-      <c r="B32" s="109"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
       <c r="D32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="43"/>
     </row>
@@ -2335,7 +2339,7 @@
       <c r="A33" s="93">
         <v>8</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2367,21 +2371,21 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
-      <c r="B34" s="109"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="41"/>
     </row>
@@ -2389,7 +2393,7 @@
       <c r="A35" s="93">
         <v>7</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2421,18 +2425,18 @@
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
-      <c r="B36" s="109"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -2440,7 +2444,7 @@
       <c r="A37" s="93">
         <v>6</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2472,31 +2476,31 @@
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
-      <c r="B38" s="102"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" s="73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="100">
         <v>5</v>
       </c>
-      <c r="B39" s="103" t="s">
-        <v>17</v>
+      <c r="B39" s="110" t="s">
+        <v>16</v>
       </c>
       <c r="C39" s="64">
         <v>1</v>
@@ -2528,30 +2532,30 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
-      <c r="B40" s="104"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>4</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2583,18 +2587,18 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
-      <c r="B42" s="104"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="53"/>
       <c r="H42" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42" s="54"/>
     </row>
@@ -2602,7 +2606,7 @@
       <c r="A43" s="93">
         <v>3</v>
       </c>
-      <c r="B43" s="104"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2634,18 +2638,18 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="104"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I44" s="19"/>
     </row>
@@ -2653,7 +2657,7 @@
       <c r="A45" s="93">
         <v>2</v>
       </c>
-      <c r="B45" s="104"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2685,20 +2689,20 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="93"/>
-      <c r="B46" s="104"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46" s="19"/>
     </row>
@@ -2707,7 +2711,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="104"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2738,26 +2742,26 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="94"/>
-      <c r="B48" s="105"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="8"/>
       <c r="I48" s="62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
+      <c r="A49" s="109">
         <v>0</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2790,15 +2794,15 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="14"/>
@@ -2807,6 +2811,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2821,18 +2837,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Monday</t>
   </si>
@@ -342,10 +342,6 @@
 (Scrum Guide)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 2-4-2018, subject to change)</t>
-  </si>
-  <si>
     <t>Lecture 8: Requirements, Use Cases
 (UD: Chapter 9)
 Use Case Exercise
@@ -373,6 +369,15 @@
     <t>Team Session:
 Use Cases
 (in class)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 3-6-2018, subject to change)</t>
+  </si>
+  <si>
+    <t>AndCulture.com
+Presentation
+(Guest Lecturers)</t>
   </si>
 </sst>
 </file>
@@ -1228,6 +1233,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,13 +1248,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,15 +1275,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1268,18 +1285,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1588,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,17 +1612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1650,7 +1655,7 @@
       <c r="A3" s="100">
         <v>16</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="66">
@@ -1683,7 +1688,7 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
-      <c r="B4" s="104"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="64" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1711,7 @@
       <c r="A5" s="93">
         <v>15</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1738,7 +1743,7 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1766,7 @@
       <c r="A7" s="93">
         <v>14</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1792,7 +1797,7 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="105"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="90" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1810,7 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>26</v>
@@ -1815,7 +1820,7 @@
       <c r="A9" s="100">
         <v>13</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1849,16 +1854,16 @@
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
-      <c r="B10" s="107"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="63" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
@@ -1870,7 +1875,7 @@
       <c r="A11" s="93">
         <v>12</v>
       </c>
-      <c r="B11" s="107"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1902,20 +1907,20 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
-      <c r="B12" s="107"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="63" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -1923,7 +1928,7 @@
       <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1955,7 +1960,7 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
-      <c r="B14" s="107"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
@@ -1978,7 +1983,7 @@
       <c r="A15" s="93">
         <v>10</v>
       </c>
-      <c r="B15" s="107"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="64">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2009,7 +2014,7 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="108"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="71" t="s">
         <v>41</v>
       </c>
@@ -2156,19 +2161,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="str">
+      <c r="A27" s="97" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 2-4-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+(as of 3-6-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2209,10 +2214,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98">
+      <c r="A29" s="106">
         <v>10</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="64">
@@ -2244,8 +2249,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="77" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2283,7 @@
       <c r="A31" s="100">
         <v>9</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="64">
@@ -2312,7 +2317,7 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
-      <c r="B32" s="104"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="64" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2320,13 +2325,13 @@
       <c r="D32" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="61" t="s">
-        <v>24</v>
-      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="61" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>39</v>
       </c>
@@ -2339,7 +2344,7 @@
       <c r="A33" s="93">
         <v>8</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2371,7 +2376,7 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
-      <c r="B34" s="104"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="10"/>
       <c r="D34" s="45" t="s">
         <v>55</v>
@@ -2393,7 +2398,7 @@
       <c r="A35" s="93">
         <v>7</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2425,7 +2430,7 @@
     </row>
     <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
-      <c r="B36" s="104"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
@@ -2444,7 +2449,7 @@
       <c r="A37" s="93">
         <v>6</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2476,7 +2481,7 @@
     </row>
     <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
-      <c r="B38" s="105"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="29"/>
       <c r="D38" s="44" t="s">
         <v>56</v>
@@ -2499,7 +2504,7 @@
       <c r="A39" s="100">
         <v>5</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="64">
@@ -2532,7 +2537,7 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
-      <c r="B40" s="111"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="64" t="s">
         <v>6</v>
       </c>
@@ -2555,7 +2560,7 @@
       <c r="A41" s="93">
         <v>4</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2587,14 +2592,14 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
-      <c r="B42" s="111"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="87"/>
       <c r="D42" s="45" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G42" s="53"/>
       <c r="H42" s="31" t="s">
@@ -2606,7 +2611,7 @@
       <c r="A43" s="93">
         <v>3</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="59">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2638,7 +2643,7 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="111"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="57"/>
       <c r="D44" s="32" t="s">
         <v>53</v>
@@ -2657,7 +2662,7 @@
       <c r="A45" s="93">
         <v>2</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2689,7 +2694,7 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="93"/>
-      <c r="B46" s="111"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="23"/>
       <c r="D46" s="45" t="s">
         <v>58</v>
@@ -2711,7 +2716,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2742,7 +2747,7 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="94"/>
-      <c r="B48" s="112"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="48"/>
       <c r="D48" s="58" t="s">
         <v>7</v>
@@ -2758,10 +2763,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="95">
         <v>0</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2794,8 +2799,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="89" t="s">
@@ -2811,18 +2816,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2837,6 +2830,18 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Monday</t>
   </si>
@@ -378,6 +378,10 @@
     <t>AndCulture.com
 Presentation
 (Guest Lecturers)</t>
+  </si>
+  <si>
+    <t>WOO HOO
+A SNOW DAY…!</t>
   </si>
 </sst>
 </file>
@@ -949,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,9 +1084,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,30 +1234,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1264,27 +1286,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1593,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,17 +1613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1652,20 +1653,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100">
+      <c r="A3" s="99">
         <v>16</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="65">
         <v>14</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="66">
         <f>C3 + 1</f>
         <v>15</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="66">
         <f t="shared" ref="E3:I3" si="0">D3 + 1</f>
         <v>16</v>
       </c>
@@ -1687,15 +1688,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1708,10 +1709,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93">
+      <c r="A5" s="92">
         <v>15</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1742,9 +1743,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1754,19 +1755,19 @@
       <c r="F6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1779,7 +1780,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f>E7+1</f>
         <v>31</v>
       </c>
@@ -1796,31 +1797,31 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="90" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="89" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100">
+      <c r="A9" s="99">
         <v>13</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1853,9 +1854,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -1872,10 +1873,10 @@
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="92">
         <v>12</v>
       </c>
-      <c r="B11" s="111"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1906,9 +1907,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1925,10 +1926,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1953,98 +1954,98 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="68">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="61" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
+      <c r="A15" s="92">
         <v>10</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="64">
+      <c r="B15" s="106"/>
+      <c r="C15" s="63">
         <f>I13 + 1</f>
         <v>25</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="64">
         <f>C15 + 1</f>
         <v>26</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <f>E15 + 1</f>
         <v>28</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="65">
         <v>1</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="66">
         <f>G15 + 1</f>
         <v>2</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="69">
         <f>H15 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="71" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="72" t="str">
+      <c r="D16" s="71" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E16" s="73" t="str">
+      <c r="E16" s="72" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F16" s="74" t="str">
+      <c r="F16" s="73" t="str">
         <f>E16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G16" s="71" t="str">
+      <c r="G16" s="70" t="str">
         <f>F16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H16" s="75" t="str">
+      <c r="H16" s="74" t="str">
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="74" t="str">
+      <c r="I16" s="73" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="35"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -2055,10 +2056,10 @@
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="90" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="38"/>
@@ -2067,10 +2068,10 @@
       <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:11" s="37" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="40"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="81" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="34"/>
@@ -2079,10 +2080,10 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="35"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="82" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="38"/>
@@ -2091,10 +2092,10 @@
       <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="35"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="38"/>
@@ -2103,10 +2104,10 @@
       <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="35"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="84" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="38"/>
@@ -2115,11 +2116,11 @@
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="85" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="38"/>
@@ -2128,7 +2129,7 @@
       <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:11" s="37" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="40"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -2139,7 +2140,7 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="40"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -2150,7 +2151,7 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="35"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2161,19 +2162,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="str">
+      <c r="A27" s="94" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
 (as of 3-6-2018, subject to change)</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2214,79 +2215,79 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
+      <c r="A29" s="97">
         <v>10</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <f>C15</f>
         <v>25</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <f>C29 + 1</f>
         <v>26</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <f t="shared" ref="E29" si="4">D29 + 1</f>
         <v>27</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="69">
         <f>F15</f>
         <v>28</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="75">
         <v>1</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="66">
         <f>G29 + 1</f>
         <v>2</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="69">
         <f>H29 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="77" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="75" t="str">
+      <c r="D30" s="74" t="str">
         <f t="shared" ref="D30" si="5">C30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E30" s="73" t="str">
+      <c r="E30" s="72" t="str">
         <f t="shared" ref="E30" si="6">D30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F30" s="74" t="str">
+      <c r="F30" s="73" t="str">
         <f>E30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G30" s="78" t="str">
+      <c r="G30" s="77" t="str">
         <f>F30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H30" s="65" t="str">
+      <c r="H30" s="64" t="str">
         <f>G30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I30" s="69" t="str">
+      <c r="I30" s="68" t="str">
         <f t="shared" ref="I30" si="7">H30</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100">
+      <c r="A31" s="99">
         <v>9</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <f>I15 + 1</f>
         <v>4</v>
       </c>
@@ -2316,9 +2317,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="64" t="str">
+      <c r="A32" s="92"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="63" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
       </c>
@@ -2329,22 +2330,22 @@
       <c r="F32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="60" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="60" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="92">
         <v>8</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2375,10 +2376,10 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="7"/>
@@ -2389,16 +2390,16 @@
       <c r="H34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="61" t="s">
         <v>25</v>
       </c>
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
+      <c r="A35" s="92">
         <v>7</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2428,28 +2429,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="109"/>
+    <row r="36" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+      <c r="A37" s="92">
         <v>6</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2466,51 +2467,51 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="64">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="67">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="I37" s="69">
+      <c r="I37" s="68">
         <f>H37 + 1</f>
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="102"/>
+    <row r="38" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="44" t="s">
-        <v>56</v>
+      <c r="D38" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="73" t="s">
+      <c r="H38" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="74" t="s">
+      <c r="I38" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100">
+      <c r="A39" s="99">
         <v>5</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <v>1</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="78">
         <f>C39 + 1</f>
         <v>2</v>
       </c>
@@ -2530,37 +2531,37 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39" s="49">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="64" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="64" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31" t="s">
-        <v>7</v>
+      <c r="F40" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93">
+      <c r="A41" s="92">
         <v>4</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2573,50 +2574,50 @@
         <f t="shared" ref="E41:I41" si="12">D41 + 1</f>
         <v>10</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="21">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="52">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="H41" s="53">
+      <c r="H41" s="52">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I41" s="54">
+      <c r="I41" s="53">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="45" t="s">
+      <c r="A42" s="92"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="44" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93">
+      <c r="A43" s="92">
         <v>3</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="59">
+      <c r="B43" s="110"/>
+      <c r="C43" s="58">
         <f>I41 + 1</f>
         <v>15</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="52">
         <f>C43 + 1</f>
         <v>16</v>
       </c>
@@ -2642,9 +2643,9 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="32" t="s">
         <v>53</v>
       </c>
@@ -2659,10 +2660,10 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93">
+      <c r="A45" s="92">
         <v>2</v>
       </c>
-      <c r="B45" s="104"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2693,13 +2694,13 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="93"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="60" t="s">
         <v>59</v>
       </c>
       <c r="F46" s="31" t="s">
@@ -2712,20 +2713,20 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93">
+      <c r="A47" s="92">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="104"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="48">
         <f>C47 + 1</f>
         <v>30</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="45">
         <v>1</v>
       </c>
       <c r="F47" s="5">
@@ -2746,27 +2747,27 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="58" t="s">
+      <c r="A48" s="93"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="60"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
+      <c r="A49" s="108">
         <v>0</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2799,11 +2800,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="89" t="s">
+      <c r="E50" s="88" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="33" t="s">
@@ -2816,6 +2817,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2830,18 +2843,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -371,10 +371,6 @@
 (in class)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-6-2018, subject to change)</t>
-  </si>
-  <si>
     <t>AndCulture.com
 Presentation
 (Guest Lecturers)</t>
@@ -382,6 +378,10 @@
   <si>
     <t>WOO HOO
 A SNOW DAY…!</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2018 Schedule
+(as of 3-22-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1234,6 +1234,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,13 +1249,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,15 +1276,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1274,18 +1286,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,17 +1613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1656,7 +1656,7 @@
       <c r="A3" s="99">
         <v>16</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="65">
@@ -1689,7 +1689,7 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92"/>
-      <c r="B4" s="103"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="A5" s="92">
         <v>15</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
-      <c r="B6" s="103"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="93"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="89" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="A9" s="99">
         <v>13</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1855,7 +1855,7 @@
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
-      <c r="B10" s="106"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="62" t="s">
         <v>61</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="A11" s="92">
         <v>12</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92"/>
-      <c r="B12" s="106"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="62" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="92"/>
-      <c r="B14" s="106"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
@@ -1984,7 +1984,7 @@
       <c r="A15" s="92">
         <v>10</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="63">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="93"/>
-      <c r="B16" s="107"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="70" t="s">
         <v>41</v>
       </c>
@@ -2162,19 +2162,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="str">
+      <c r="A27" s="96" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-6-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
+(as of 3-22-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="98"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2215,10 +2215,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="105">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="63">
@@ -2250,8 +2250,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="A31" s="99">
         <v>9</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="63">
@@ -2318,7 +2318,7 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92"/>
-      <c r="B32" s="103"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="63" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2345,7 +2345,7 @@
       <c r="A33" s="92">
         <v>8</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
-      <c r="B34" s="103"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="10"/>
       <c r="D34" s="44" t="s">
         <v>55</v>
@@ -2399,7 +2399,7 @@
       <c r="A35" s="92">
         <v>7</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2431,14 +2431,14 @@
     </row>
     <row r="36" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92"/>
-      <c r="B36" s="103"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -2450,7 +2450,7 @@
       <c r="A37" s="92">
         <v>6</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="38" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
-      <c r="B38" s="104"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="29"/>
       <c r="D38" s="14" t="s">
         <v>19</v>
@@ -2505,7 +2505,7 @@
       <c r="A39" s="99">
         <v>5</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="63">
@@ -2538,7 +2538,7 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92"/>
-      <c r="B40" s="110"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="63" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="A41" s="92">
         <v>4</v>
       </c>
-      <c r="B41" s="110"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2593,14 +2593,14 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="92"/>
-      <c r="B42" s="110"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="86"/>
       <c r="D42" s="44" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="52"/>
       <c r="H42" s="31" t="s">
@@ -2612,7 +2612,7 @@
       <c r="A43" s="92">
         <v>3</v>
       </c>
-      <c r="B43" s="110"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="58">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="92"/>
-      <c r="B44" s="110"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="56"/>
       <c r="D44" s="32" t="s">
         <v>53</v>
@@ -2663,7 +2663,7 @@
       <c r="A45" s="92">
         <v>2</v>
       </c>
-      <c r="B45" s="110"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="92"/>
-      <c r="B46" s="110"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="23"/>
       <c r="D46" s="44" t="s">
         <v>58</v>
@@ -2717,7 +2717,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="93"/>
-      <c r="B48" s="111"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="47"/>
       <c r="D48" s="57" t="s">
         <v>7</v>
@@ -2764,10 +2764,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+      <c r="A49" s="94">
         <v>0</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="100" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="88" t="s">
@@ -2817,18 +2817,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2843,6 +2831,18 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Monday</t>
   </si>
@@ -287,17 +287,6 @@
     <t>A04: Individual MS1 Baseline Prototype</t>
   </si>
   <si>
-    <t>A04: Individual MS2
-33% Progresss</t>
-  </si>
-  <si>
-    <t>A04: Individual MS3
-67% Progress</t>
-  </si>
-  <si>
-    <t>A04: Individual MS4 Final Project Demo</t>
-  </si>
-  <si>
     <t>A09: Individual Code &amp; Report due
 (Marmoset)</t>
   </si>
@@ -380,8 +369,15 @@
 A SNOW DAY…!</t>
   </si>
   <si>
+    <t>A04: Individual MS2
+50% Progresss</t>
+  </si>
+  <si>
+    <t>A04: Individual MS3 Final Project Demo</t>
+  </si>
+  <si>
     <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-22-2018, subject to change)</t>
+(as of 3-23-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1234,30 +1230,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1265,27 +1282,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1594,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1613,17 +1609,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
+      <c r="A1" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1656,7 +1652,7 @@
       <c r="A3" s="99">
         <v>16</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="65">
@@ -1689,7 +1685,7 @@
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92"/>
-      <c r="B4" s="108"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +1708,7 @@
       <c r="A5" s="92">
         <v>15</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1744,22 +1740,22 @@
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
-      <c r="B6" s="108"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I6" s="91"/>
     </row>
@@ -1767,7 +1763,7 @@
       <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1798,7 +1794,7 @@
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="93"/>
-      <c r="B8" s="101"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="89" t="s">
         <v>20</v>
       </c>
@@ -1807,11 +1803,11 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8" s="61" t="s">
         <v>26</v>
@@ -1821,7 +1817,7 @@
       <c r="A9" s="99">
         <v>13</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1855,16 +1851,16 @@
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
-      <c r="B10" s="110"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
@@ -1876,7 +1872,7 @@
       <c r="A11" s="92">
         <v>12</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1908,20 +1904,20 @@
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -1929,7 +1925,7 @@
       <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1961,7 +1957,7 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="92"/>
-      <c r="B14" s="110"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
@@ -1984,7 +1980,7 @@
       <c r="A15" s="92">
         <v>10</v>
       </c>
-      <c r="B15" s="110"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="63">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2015,7 +2011,7 @@
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="93"/>
-      <c r="B16" s="111"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="70" t="s">
         <v>41</v>
       </c>
@@ -2162,19 +2158,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="str">
+      <c r="A27" s="94" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-22-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="98"/>
+(as of 3-23-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2215,10 +2211,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105">
+      <c r="A29" s="97">
         <v>10</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="100" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="63">
@@ -2250,8 +2246,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2280,7 @@
       <c r="A31" s="99">
         <v>9</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="102" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="63">
@@ -2318,7 +2314,7 @@
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92"/>
-      <c r="B32" s="108"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="63" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2345,7 +2341,7 @@
       <c r="A33" s="92">
         <v>8</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2377,7 +2373,7 @@
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
-      <c r="B34" s="108"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="10"/>
       <c r="D34" s="44" t="s">
         <v>55</v>
@@ -2399,7 +2395,7 @@
       <c r="A35" s="92">
         <v>7</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2431,14 +2427,14 @@
     </row>
     <row r="36" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92"/>
-      <c r="B36" s="108"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -2450,7 +2446,7 @@
       <c r="A37" s="92">
         <v>6</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="38" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
-      <c r="B38" s="101"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="29"/>
       <c r="D38" s="14" t="s">
         <v>19</v>
@@ -2505,7 +2501,7 @@
       <c r="A39" s="99">
         <v>5</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="109" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="63">
@@ -2538,7 +2534,7 @@
     </row>
     <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92"/>
-      <c r="B40" s="103"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="63" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2543,7 @@
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="44" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="87" t="s">
@@ -2561,7 +2557,7 @@
       <c r="A41" s="92">
         <v>4</v>
       </c>
-      <c r="B41" s="103"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2593,14 +2589,14 @@
     </row>
     <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="92"/>
-      <c r="B42" s="103"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="44" t="s">
-        <v>57</v>
+      <c r="D42" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G42" s="52"/>
       <c r="H42" s="31" t="s">
@@ -2612,7 +2608,7 @@
       <c r="A43" s="92">
         <v>3</v>
       </c>
-      <c r="B43" s="103"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="58">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2644,7 +2640,7 @@
     </row>
     <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="92"/>
-      <c r="B44" s="103"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="56"/>
       <c r="D44" s="32" t="s">
         <v>53</v>
@@ -2663,7 +2659,7 @@
       <c r="A45" s="92">
         <v>2</v>
       </c>
-      <c r="B45" s="103"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2695,13 +2691,13 @@
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="92"/>
-      <c r="B46" s="103"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="23"/>
       <c r="D46" s="44" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>7</v>
@@ -2717,7 +2713,7 @@
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="103"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2748,7 +2744,7 @@
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="93"/>
-      <c r="B48" s="104"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="47"/>
       <c r="D48" s="57" t="s">
         <v>7</v>
@@ -2764,10 +2760,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94">
+      <c r="A49" s="108">
         <v>0</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2800,8 +2796,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="95"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="88" t="s">
@@ -2817,6 +2813,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2831,18 +2839,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="15825" windowHeight="12075"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -377,7 +382,7 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-23-2018, subject to change)</t>
+(as of 4-6-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -1206,9 +1211,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,6 +1232,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,13 +1247,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,15 +1274,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1272,17 +1286,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,7 +1349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1379,7 +1384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1590,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,17 +1614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1649,10 +1654,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99">
+      <c r="A3" s="98">
         <v>16</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="99" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="65">
@@ -1684,8 +1689,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
@@ -1705,10 +1710,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="91">
         <v>15</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1739,8 +1744,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
@@ -1757,13 +1762,13 @@
       <c r="H6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="91"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="91">
         <v>14</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1793,9 +1798,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="88" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1814,10 +1819,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99">
+      <c r="A9" s="98">
         <v>13</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1850,8 +1855,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="62" t="s">
         <v>58</v>
       </c>
@@ -1869,10 +1874,10 @@
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="91">
         <v>12</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1903,8 +1908,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="62" t="s">
         <v>54</v>
       </c>
@@ -1922,10 +1927,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92">
+      <c r="A13" s="91">
         <v>11</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1956,8 +1961,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
@@ -1977,10 +1982,10 @@
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92">
+      <c r="A15" s="91">
         <v>10</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="63">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2010,8 +2015,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="70" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2060,7 @@
       <c r="A18" s="80"/>
       <c r="B18" s="35"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="89" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="38"/>
@@ -2158,19 +2163,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="str">
+      <c r="A27" s="95" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 3-23-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
+(as of 4-6-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2211,10 +2216,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="104">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="105" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="63">
@@ -2246,8 +2251,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
@@ -2277,10 +2282,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99">
+      <c r="A31" s="98">
         <v>9</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="99" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="63">
@@ -2313,8 +2318,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="63" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2338,10 +2343,10 @@
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
+      <c r="A33" s="91">
         <v>8</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2372,8 +2377,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="10"/>
       <c r="D34" s="44" t="s">
         <v>55</v>
@@ -2392,10 +2397,10 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
+      <c r="A35" s="91">
         <v>7</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2426,8 +2431,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
@@ -2443,10 +2448,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92">
+      <c r="A37" s="91">
         <v>6</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2477,8 +2482,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="29"/>
       <c r="D38" s="14" t="s">
         <v>19</v>
@@ -2498,10 +2503,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="99">
+      <c r="A39" s="98">
         <v>5</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="63">
@@ -2532,9 +2537,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="110"/>
+    <row r="40" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="63" t="s">
         <v>6</v>
       </c>
@@ -2546,18 +2551,16 @@
         <v>71</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="87" t="s">
+      <c r="H40" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="61" t="s">
-        <v>33</v>
-      </c>
+      <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92">
+      <c r="A41" s="91">
         <v>4</v>
       </c>
-      <c r="B41" s="110"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2587,10 +2590,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="86"/>
+    <row r="42" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="D42" s="31" t="s">
         <v>7</v>
       </c>
@@ -2605,10 +2610,10 @@
       <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="A43" s="91">
         <v>3</v>
       </c>
-      <c r="B43" s="110"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="58">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2638,9 +2643,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="110"/>
+    <row r="44" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="56"/>
       <c r="D44" s="32" t="s">
         <v>53</v>
@@ -2656,10 +2661,10 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
+      <c r="A45" s="91">
         <v>2</v>
       </c>
-      <c r="B45" s="110"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2690,8 +2695,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="23"/>
       <c r="D46" s="44" t="s">
         <v>72</v>
@@ -2709,11 +2714,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="92">
+      <c r="A47" s="91">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2743,8 +2748,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="93"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="47"/>
       <c r="D48" s="57" t="s">
         <v>7</v>
@@ -2760,10 +2765,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+      <c r="A49" s="93">
         <v>0</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="99" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2796,11 +2801,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="87" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="33" t="s">
@@ -2813,18 +2818,6 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2839,6 +2832,18 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2018Calendar.xlsx
+++ b/CS320-Spring2018Calendar.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="15825" windowHeight="12075"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -382,7 +377,7 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2018 Schedule
-(as of 4-6-2018, subject to change)</t>
+(as of 4-9-2018, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -954,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,36 +1221,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1265,28 +1284,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1384,7 +1382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1595,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,17 +1612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1654,10 +1652,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
+      <c r="A3" s="99">
         <v>16</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="65">
@@ -1689,8 +1687,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
@@ -1710,10 +1708,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
+      <c r="A5" s="92">
         <v>15</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="10">
         <f>I3 + 1</f>
         <v>21</v>
@@ -1744,8 +1742,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
@@ -1765,10 +1763,10 @@
       <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="10">
         <f>I5 + 1</f>
         <v>28</v>
@@ -1798,8 +1796,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="88" t="s">
         <v>20</v>
       </c>
@@ -1819,10 +1817,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="99">
         <v>13</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20">
@@ -1855,8 +1853,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="62" t="s">
         <v>58</v>
       </c>
@@ -1874,10 +1872,10 @@
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="92">
         <v>12</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="24">
         <f>I9 + 1</f>
         <v>11</v>
@@ -1908,8 +1906,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="62" t="s">
         <v>54</v>
       </c>
@@ -1927,10 +1925,10 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="92">
         <v>11</v>
       </c>
-      <c r="B13" s="109"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="24">
         <f>I11 + 1</f>
         <v>18</v>
@@ -1961,8 +1959,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
@@ -1982,10 +1980,10 @@
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="92">
         <v>10</v>
       </c>
-      <c r="B15" s="109"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="63">
         <f>I13 + 1</f>
         <v>25</v>
@@ -2015,8 +2013,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="70" t="s">
         <v>41</v>
       </c>
@@ -2163,19 +2161,19 @@
       <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:11" s="36" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="str">
+      <c r="A27" s="94" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2018 Schedule
-(as of 4-6-2018, subject to change)</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+(as of 4-9-2018, subject to change)</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
@@ -2216,10 +2214,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104">
+      <c r="A29" s="97">
         <v>10</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="100" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="63">
@@ -2251,8 +2249,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="106"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
@@ -2282,10 +2280,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98">
+      <c r="A31" s="99">
         <v>9</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="102" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="63">
@@ -2318,8 +2316,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="63" t="str">
         <f>I30</f>
         <v>WINTER BREAK</v>
@@ -2343,10 +2341,10 @@
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="92">
         <v>8</v>
       </c>
-      <c r="B33" s="107"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="28">
         <f>I31 + 1</f>
         <v>11</v>
@@ -2377,8 +2375,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="10"/>
       <c r="D34" s="44" t="s">
         <v>55</v>
@@ -2397,10 +2395,10 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="92">
         <v>7</v>
       </c>
-      <c r="B35" s="107"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="10">
         <f>I33 + 1</f>
         <v>18</v>
@@ -2431,8 +2429,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="107"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="10"/>
       <c r="D36" s="32" t="s">
         <v>18</v>
@@ -2448,10 +2446,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="92">
         <v>6</v>
       </c>
-      <c r="B37" s="107"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="10">
         <f>I35 + 1</f>
         <v>25</v>
@@ -2482,8 +2480,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="29"/>
       <c r="D38" s="14" t="s">
         <v>19</v>
@@ -2503,10 +2501,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98">
+      <c r="A39" s="99">
         <v>5</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="109" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="63">
@@ -2538,8 +2536,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="63" t="s">
         <v>6</v>
       </c>
@@ -2554,13 +2552,13 @@
       <c r="H40" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="111"/>
+      <c r="I40" s="91"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="92">
         <v>4</v>
       </c>
-      <c r="B41" s="102"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="24">
         <f>I39 + 1</f>
         <v>8</v>
@@ -2591,12 +2589,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="61" t="s">
+      <c r="A42" s="92"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="17"/>
@@ -2610,10 +2608,10 @@
       <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="92">
         <v>3</v>
       </c>
-      <c r="B43" s="102"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="58">
         <f>I41 + 1</f>
         <v>15</v>
@@ -2644,27 +2642,27 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="32" t="s">
-        <v>53</v>
+      <c r="D44" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="31" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="17"/>
-      <c r="H44" s="31" t="s">
-        <v>7</v>
+      <c r="H44" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="92">
         <v>2</v>
       </c>
-      <c r="B45" s="102"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="24">
         <f>I43 + 1</f>
         <v>22</v>
@@ -2695,8 +2693,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="91"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="23"/>
       <c r="D46" s="44" t="s">
         <v>72</v>
@@ -2714,11 +2712,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="92">
         <f>A50 + 1</f>
         <v>1</v>
       </c>
-      <c r="B47" s="102"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24">
         <f>I45 + 1</f>
         <v>29</v>
@@ -2748,8 +2746,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="47"/>
       <c r="D48" s="57" t="s">
         <v>7</v>
@@ -2765,10 +2763,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93">
+      <c r="A49" s="108">
         <v>0</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="10">
@@ -2801,8 +2799,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="94"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="87" t="s">
@@ -2818,6 +2816,18 @@
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:I1"/>
@@ -2832,18 +2842,6 @@
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
